--- a/可视化作图需求0416-v1/机场中心度增长率.xlsx
+++ b/可视化作图需求0416-v1/机场中心度增长率.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smg/Desktop/volat-economy-scrollmagic/可视化作图需求0416-v1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView xWindow="25400" yWindow="460" windowWidth="24000" windowHeight="23780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1263,14 +1276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,345 +1286,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1625,251 +1309,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1878,57 +1320,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2190,5370 +1585,5372 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2">
         <v>1.33333334461111</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#DIV/0!</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.333333344611111</v>
+        <v>3.0888888354491399</v>
       </c>
       <c r="C3">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E3">
-        <v>4.99999992466667</v>
-      </c>
-      <c r="G3">
-        <v>8.00000029000001</v>
-      </c>
-      <c r="I3">
-        <v>3.08888883544914</v>
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D3">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F3">
+        <v>4.9999999246666702</v>
+      </c>
+      <c r="H3">
+        <v>8.0000002900000098</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.666666655388889</v>
+        <v>2.2148148825654999</v>
       </c>
       <c r="C4">
-        <v>5.00000003566667</v>
-      </c>
-      <c r="E4">
-        <v>5.999999887</v>
-      </c>
-      <c r="G4">
-        <v>5.66666688416667</v>
-      </c>
-      <c r="I4">
-        <v>2.2148148825655</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D4">
+        <v>5.0000000356666696</v>
+      </c>
+      <c r="F4">
+        <v>5.9999998870000004</v>
+      </c>
+      <c r="H4">
+        <v>5.6666668841666699</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.666666655388889</v>
+        <v>1.543290086621</v>
       </c>
       <c r="C5">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E5">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G5">
-        <v>4.000000145</v>
-      </c>
-      <c r="I5">
-        <v>1.543290086621</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D5">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F5">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H5">
+        <v>4.0000001449999996</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.333333344611111</v>
+        <v>1.1666667129444499</v>
       </c>
       <c r="C6">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D6">
         <v>0.333333321444444</v>
       </c>
-      <c r="E6">
-        <v>0.666666654111111</v>
-      </c>
-      <c r="G6">
-        <v>2.33333340583334</v>
-      </c>
-      <c r="I6">
-        <v>1.16666671294445</v>
+      <c r="F6">
+        <v>0.66666665411111103</v>
+      </c>
+      <c r="H6">
+        <v>2.3333334058333399</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.666666655388889</v>
+        <v>1.0416666454861101</v>
       </c>
       <c r="C7">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E7">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G7">
-        <v>3.0000000725</v>
-      </c>
-      <c r="I7">
-        <v>1.04166664548611</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D7">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F7">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H7">
+        <v>3.0000000724999998</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
+        <v>1.0260499776318901</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E8">
-        <v>6.33333323288889</v>
-      </c>
-      <c r="G8">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I8">
-        <v>1.02604997763189</v>
+      <c r="D8">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F8">
+        <v>6.3333332328888901</v>
+      </c>
+      <c r="H8">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.333333344611111</v>
+        <v>1.0000000235555599</v>
       </c>
       <c r="C9">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D9">
         <v>0.333333321444444</v>
       </c>
-      <c r="E9">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G9">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I9">
-        <v>1.00000002355556</v>
+      <c r="F9">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H9">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
+        <v>0.94444446762037104</v>
+      </c>
+      <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>3.0000000725</v>
-      </c>
-      <c r="I10">
-        <v>0.944444467620371</v>
+      <c r="H10">
+        <v>3.0000000724999998</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.666666655388889</v>
+        <v>0.91481484519952805</v>
       </c>
       <c r="C11">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E11">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G11">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I11">
-        <v>0.914814845199528</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D11">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F11">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H11">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.666666655388889</v>
+        <v>0.847222240696761</v>
       </c>
       <c r="C12">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G12">
-        <v>3.66666681166667</v>
-      </c>
-      <c r="I12">
-        <v>0.847222240696761</v>
+      <c r="F12">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H12">
+        <v>3.6666668116666701</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
-        <v>0.333333344611111</v>
+        <v>0.77777781444444705</v>
       </c>
       <c r="C13">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D13">
         <v>0.333333321444444</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I13">
-        <v>0.777777814444447</v>
+      <c r="H13">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14">
+        <v>0.74140212960587504</v>
+      </c>
+      <c r="C14">
         <v>1.33333334461111</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.16666666072222</v>
       </c>
-      <c r="E14">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G14">
-        <v>5.33333347833334</v>
-      </c>
-      <c r="I14">
-        <v>0.741402129605875</v>
+      <c r="F14">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H14">
+        <v>5.3333334783333397</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15">
-        <v>1.16666668922222</v>
+        <v>0.73593074456682905</v>
       </c>
       <c r="C15">
-        <v>2.33333335711111</v>
-      </c>
-      <c r="E15">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G15">
+        <v>1.1666666892222199</v>
+      </c>
+      <c r="D15">
+        <v>2.3333333571111101</v>
+      </c>
+      <c r="F15">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H15">
         <v>6.00000021750001</v>
-      </c>
-      <c r="I15">
-        <v>0.735930744566829</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16">
+        <v>0.73504274353687304</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>4.33333327055556</v>
-      </c>
-      <c r="G16">
-        <v>4.50000018125001</v>
-      </c>
-      <c r="I16">
-        <v>0.735042743536873</v>
+      <c r="F16">
+        <v>4.3333332705555598</v>
+      </c>
+      <c r="H16">
+        <v>4.5000001812500097</v>
       </c>
       <c r="J16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17">
+        <v>0.71318449093603198</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E17">
-        <v>6.33333323288889</v>
-      </c>
-      <c r="G17">
-        <v>10.00000029</v>
-      </c>
-      <c r="I17">
-        <v>0.713184490936032</v>
+      <c r="D17">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F17">
+        <v>6.3333332328888901</v>
+      </c>
+      <c r="H17">
+        <v>10.000000289999999</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18">
-        <v>0.333333344611111</v>
+        <v>0.66666663027778095</v>
       </c>
       <c r="C18">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D18">
         <v>0.333333321444444</v>
       </c>
-      <c r="E18">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G18">
+      <c r="F18">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H18">
         <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0.666666630277781</v>
       </c>
       <c r="J18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.333333344611111</v>
+        <v>0.66666663027778095</v>
       </c>
       <c r="C19">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D19">
         <v>0.333333321444444</v>
       </c>
-      <c r="E19">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G19">
+      <c r="F19">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0.666666630277781</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20">
+        <v>0.64722224003909801</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E20">
-        <v>4.99999992466667</v>
-      </c>
-      <c r="G20">
-        <v>8.66666695666668</v>
-      </c>
-      <c r="I20">
-        <v>0.647222240039098</v>
+      <c r="D20">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F20">
+        <v>4.9999999246666702</v>
+      </c>
+      <c r="H20">
+        <v>8.6666669566666794</v>
       </c>
       <c r="J20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21">
-        <v>0.666666655388889</v>
+        <v>0.611111141879631</v>
       </c>
       <c r="C21">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G21">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I21">
-        <v>0.611111141879631</v>
+      <c r="F21">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H21">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22">
-        <v>0.333333344611111</v>
+        <v>0.61111111569444598</v>
       </c>
       <c r="C22">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E22">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D22">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I22">
-        <v>0.611111115694446</v>
+      <c r="H22">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23">
+        <v>0.56944445468287197</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E23">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G23">
-        <v>3.66666681166667</v>
-      </c>
-      <c r="I23">
-        <v>0.569444454682872</v>
+      <c r="D23">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F23">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H23">
+        <v>3.6666668116666701</v>
       </c>
       <c r="J23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24">
+        <v>0.56565657246474299</v>
+      </c>
+      <c r="C24">
         <v>1.33333334461111</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G24">
-        <v>5.000000145</v>
-      </c>
-      <c r="I24">
-        <v>0.565656572464743</v>
+      <c r="F24">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H24">
+        <v>5.0000001449999996</v>
       </c>
       <c r="J24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.55555557972222303</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I25">
-        <v>0.555555579722223</v>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.333333344611111</v>
+        <v>0.49999999747222401</v>
       </c>
       <c r="C26">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D26">
         <v>0.333333321444444</v>
       </c>
-      <c r="E26">
-        <v>0.666666654111111</v>
-      </c>
-      <c r="G26">
+      <c r="F26">
+        <v>0.66666665411111103</v>
+      </c>
+      <c r="H26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0.499999997472224</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="B27">
+        <v>0.49544817293746501</v>
+      </c>
+      <c r="C27">
         <v>1.33333334461111</v>
       </c>
-      <c r="C27">
-        <v>2.83333333927778</v>
-      </c>
-      <c r="E27">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G27">
-        <v>3.33333340583334</v>
-      </c>
-      <c r="I27">
-        <v>0.495448172937465</v>
+      <c r="D27">
+        <v>2.8333333392777802</v>
+      </c>
+      <c r="F27">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H27">
+        <v>3.3333334058333399</v>
       </c>
       <c r="J27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28">
-        <v>4.00000003383333</v>
+        <v>0.46324787674575701</v>
       </c>
       <c r="C28">
-        <v>6.66666671422222</v>
-      </c>
-      <c r="E28">
-        <v>8.66666654111111</v>
-      </c>
-      <c r="G28">
-        <v>12.3333337683333</v>
-      </c>
-      <c r="I28">
-        <v>0.463247876745757</v>
+        <v>4.0000000338333299</v>
+      </c>
+      <c r="D28">
+        <v>6.6666667142222202</v>
+      </c>
+      <c r="F28">
+        <v>8.6666665411111108</v>
+      </c>
+      <c r="H28">
+        <v>12.333333768333301</v>
       </c>
       <c r="J28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>61</v>
       </c>
       <c r="B29">
-        <v>1.66666668922222</v>
+        <v>0.45185186052658499</v>
       </c>
       <c r="C29">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E29">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G29">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I29">
-        <v>0.451851860526585</v>
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D29">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F29">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H29">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30">
-        <v>0.666666655388889</v>
+        <v>0.44444445766203799</v>
       </c>
       <c r="C30">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.99999996233333</v>
       </c>
-      <c r="G30">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I30">
-        <v>0.444444457662038</v>
+      <c r="H30">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>65</v>
       </c>
       <c r="B31">
-        <v>0.666666655388889</v>
+        <v>0.44444445766203799</v>
       </c>
       <c r="C31">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.99999996233333</v>
       </c>
-      <c r="G31">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I31">
-        <v>0.444444457662038</v>
+      <c r="H31">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>67</v>
       </c>
       <c r="B32">
+        <v>0.43650794677966798</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G32">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I32">
-        <v>0.436507946779668</v>
+      <c r="F32">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H32">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>69</v>
       </c>
       <c r="B33">
-        <v>2.66666668922222</v>
+        <v>0.42956351111075203</v>
       </c>
       <c r="C33">
-        <v>3.50000001783333</v>
-      </c>
-      <c r="E33">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G33">
-        <v>7.33333355083334</v>
-      </c>
-      <c r="I33">
-        <v>0.429563511110752</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D33">
+        <v>3.5000000178333299</v>
+      </c>
+      <c r="F33">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H33">
+        <v>7.3333335508333404</v>
       </c>
       <c r="J33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>71</v>
       </c>
       <c r="B34">
-        <v>1.66666668922222</v>
+        <v>0.42685186325304397</v>
       </c>
       <c r="C34">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E34">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G34">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I34">
-        <v>0.426851863253044</v>
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D34">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F34">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H34">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>73</v>
       </c>
       <c r="B35">
-        <v>3.66666668922222</v>
+        <v>0.42215256699291098</v>
       </c>
       <c r="C35">
-        <v>7.33333339277778</v>
-      </c>
-      <c r="E35">
-        <v>9.66666650344445</v>
-      </c>
-      <c r="G35">
-        <v>9.16666699291668</v>
-      </c>
-      <c r="I35">
-        <v>0.422152566992911</v>
+        <v>3.6666666892222199</v>
+      </c>
+      <c r="D35">
+        <v>7.3333333927777797</v>
+      </c>
+      <c r="F35">
+        <v>9.6666665034444499</v>
+      </c>
+      <c r="H35">
+        <v>9.1666669929166797</v>
       </c>
       <c r="J35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>75</v>
       </c>
       <c r="B36">
+        <v>0.41666668402083401</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E36">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G36">
-        <v>5.66666688416667</v>
-      </c>
-      <c r="I36">
-        <v>0.416666684020834</v>
+      <c r="D36">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F36">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H36">
+        <v>5.6666668841666699</v>
       </c>
       <c r="J36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>77</v>
       </c>
       <c r="B37">
+        <v>0.40909089489508799</v>
+      </c>
+      <c r="C37">
         <v>1.83333334461111</v>
       </c>
-      <c r="C37">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E37">
-        <v>3.33333327055556</v>
-      </c>
-      <c r="G37">
-        <v>3.33333340583334</v>
-      </c>
-      <c r="I37">
-        <v>0.409090894895088</v>
+      <c r="D37">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F37">
+        <v>3.3333332705555598</v>
+      </c>
+      <c r="H37">
+        <v>3.3333334058333399</v>
       </c>
       <c r="J37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>79</v>
       </c>
       <c r="B38">
+        <v>0.40833334568930701</v>
+      </c>
+      <c r="C38">
         <v>1.33333334461111</v>
       </c>
-      <c r="C38">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E38">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G38">
-        <v>3.66666681166667</v>
-      </c>
-      <c r="I38">
-        <v>0.408333345689307</v>
+      <c r="D38">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F38">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H38">
+        <v>3.6666668116666701</v>
       </c>
       <c r="J38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="B39">
+        <v>0.37962962173868398</v>
+      </c>
+      <c r="C39">
         <v>1.33333334461111</v>
       </c>
-      <c r="C39">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E39">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G39">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I39">
-        <v>0.379629621738684</v>
+      <c r="D39">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F39">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H39">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>83</v>
       </c>
       <c r="B40">
+        <v>0.35952381610247502</v>
+      </c>
+      <c r="C40">
         <v>1.33333334461111</v>
       </c>
-      <c r="C40">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E40">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G40">
-        <v>3.33333340583334</v>
-      </c>
-      <c r="I40">
-        <v>0.359523816102475</v>
+      <c r="D40">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F40">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H40">
+        <v>3.3333334058333399</v>
       </c>
       <c r="J40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>85</v>
       </c>
       <c r="B41">
-        <v>3.00000003383333</v>
+        <v>0.34680137175618297</v>
       </c>
       <c r="C41">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E41">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G41">
+        <v>3.0000000338333299</v>
+      </c>
+      <c r="D41">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F41">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H41">
         <v>6.00000021750001</v>
-      </c>
-      <c r="I41">
-        <v>0.346801371756183</v>
       </c>
       <c r="J41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>87</v>
       </c>
       <c r="B42">
-        <v>4.33333337844445</v>
+        <v>0.337010882198298</v>
       </c>
       <c r="C42">
-        <v>6.00000003566667</v>
-      </c>
-      <c r="E42">
-        <v>8.16666652227778</v>
-      </c>
-      <c r="G42">
+        <v>4.3333333784444497</v>
+      </c>
+      <c r="D42">
+        <v>6.0000000356666696</v>
+      </c>
+      <c r="F42">
+        <v>8.1666665222777794</v>
+      </c>
+      <c r="H42">
         <v>10.3333336958333</v>
-      </c>
-      <c r="I42">
-        <v>0.337010882198298</v>
       </c>
       <c r="J42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>89</v>
       </c>
       <c r="B43">
-        <v>0.666666655388889</v>
+        <v>0.33333338150000202</v>
       </c>
       <c r="C43">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E43">
-        <v>0.666666654111111</v>
-      </c>
-      <c r="G43">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I43">
-        <v>0.333333381500002</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D43">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F43">
+        <v>0.66666665411111103</v>
+      </c>
+      <c r="H43">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>91</v>
       </c>
       <c r="B44">
-        <v>0.333333344611111</v>
+        <v>0.33333332766666801</v>
       </c>
       <c r="C44">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D44">
         <v>0.333333321444444</v>
       </c>
-      <c r="E44">
-        <v>0.666666654111111</v>
-      </c>
-      <c r="G44">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I44">
-        <v>0.333333327666668</v>
+      <c r="F44">
+        <v>0.66666665411111103</v>
+      </c>
+      <c r="H44">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>93</v>
       </c>
       <c r="B45">
-        <v>0.333333344611111</v>
+        <v>0.33333330950000301</v>
       </c>
       <c r="C45">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D45">
         <v>0.333333321444444</v>
       </c>
-      <c r="E45">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G45">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I45">
-        <v>0.333333309500003</v>
+      <c r="F45">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H45">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>95</v>
       </c>
       <c r="B46">
-        <v>5.66666672305556</v>
+        <v>0.31536963008282298</v>
       </c>
       <c r="C46">
-        <v>7.66666671422222</v>
-      </c>
-      <c r="E46">
+        <v>5.6666667230555596</v>
+      </c>
+      <c r="D46">
+        <v>7.6666667142222202</v>
+      </c>
+      <c r="F46">
         <v>11.6666664657778</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>12.50000039875</v>
-      </c>
-      <c r="I46">
-        <v>0.315369630082823</v>
       </c>
       <c r="J46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>97</v>
       </c>
       <c r="B47">
-        <v>2.66666668922222</v>
+        <v>0.29166668746527902</v>
       </c>
       <c r="C47">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E47">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G47">
-        <v>5.000000145</v>
-      </c>
-      <c r="I47">
-        <v>0.291666687465279</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D47">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F47">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H47">
+        <v>5.0000001449999996</v>
       </c>
       <c r="J47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>99</v>
       </c>
       <c r="B48">
-        <v>1.66666668922222</v>
+        <v>0.288888899744075</v>
       </c>
       <c r="C48">
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1.99999996233333</v>
       </c>
-      <c r="G48">
-        <v>3.33333340583334</v>
-      </c>
-      <c r="I48">
-        <v>0.288888899744075</v>
+      <c r="H48">
+        <v>3.3333334058333399</v>
       </c>
       <c r="J48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>101</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.27777779694907501</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G49">
-        <v>2.0000000725</v>
-      </c>
-      <c r="I49">
-        <v>0.277777796949075</v>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H49">
+        <v>2.0000000724999998</v>
       </c>
       <c r="J49" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50">
+        <v>0.27589275614354097</v>
+      </c>
+      <c r="C50">
         <v>13.1666667907222</v>
       </c>
-      <c r="C50">
-        <v>13.5000000891667</v>
-      </c>
       <c r="D50">
-        <v>0.0253164528078835</v>
+        <v>13.500000089166701</v>
       </c>
       <c r="E50">
+        <v>2.5316452807883499E-2</v>
+      </c>
+      <c r="F50">
         <v>19.1666663716111</v>
       </c>
-      <c r="F50">
-        <v>0.419753055186405</v>
-      </c>
       <c r="G50">
-        <v>26.50000083375</v>
+        <v>0.41975305518640499</v>
       </c>
       <c r="H50">
-        <v>0.382608760436335</v>
+        <v>26.500000833750001</v>
       </c>
       <c r="I50">
-        <v>0.275892756143541</v>
+        <v>0.38260876043633502</v>
       </c>
       <c r="J50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51">
-        <v>2.66666668922222</v>
+        <v>0.27447090235906402</v>
       </c>
       <c r="C51">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E51">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G51">
-        <v>5.33333347833334</v>
-      </c>
-      <c r="I51">
-        <v>0.274470902359064</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D51">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F51">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H51">
+        <v>5.3333334783333397</v>
       </c>
       <c r="J51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>107</v>
       </c>
       <c r="B52">
-        <v>4.33333337844445</v>
+        <v>0.27167279026317498</v>
       </c>
       <c r="C52">
-        <v>4.66666667855556</v>
-      </c>
-      <c r="E52">
-        <v>4.99999992466667</v>
-      </c>
-      <c r="G52">
-        <v>8.33333362333334</v>
-      </c>
-      <c r="I52">
-        <v>0.271672790263175</v>
+        <v>4.3333333784444497</v>
+      </c>
+      <c r="D52">
+        <v>4.6666666785555604</v>
+      </c>
+      <c r="F52">
+        <v>4.9999999246666702</v>
+      </c>
+      <c r="H52">
+        <v>8.3333336233333402</v>
       </c>
       <c r="J52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>109</v>
       </c>
       <c r="B53">
-        <v>1.66666668922222</v>
+        <v>0.26666667098000102</v>
       </c>
       <c r="C53">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E53">
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D53">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F53">
         <v>1.99999996233333</v>
       </c>
-      <c r="G53">
-        <v>3.0000000725</v>
-      </c>
-      <c r="I53">
-        <v>0.266666670980001</v>
+      <c r="H53">
+        <v>3.0000000724999998</v>
       </c>
       <c r="J53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>111</v>
       </c>
       <c r="B54">
+        <v>0.26624938389668001</v>
+      </c>
+      <c r="C54">
         <v>15.6666667907222</v>
       </c>
-      <c r="C54">
-        <v>18.3333334641111</v>
-      </c>
       <c r="D54">
+        <v>18.333333464111099</v>
+      </c>
+      <c r="E54">
         <v>0.170212765038705</v>
       </c>
-      <c r="E54">
-        <v>23.9999996233333</v>
-      </c>
       <c r="F54">
-        <v>0.309090879207273</v>
+        <v>23.999999623333299</v>
       </c>
       <c r="G54">
-        <v>31.6666676816667</v>
+        <v>0.30909087920727302</v>
       </c>
       <c r="H54">
+        <v>31.666667681666699</v>
+      </c>
+      <c r="I54">
         <v>0.319444507444061</v>
-      </c>
-      <c r="I54">
-        <v>0.26624938389668</v>
       </c>
       <c r="J54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>113</v>
       </c>
       <c r="B55">
-        <v>9.00000006766667</v>
+        <v>0.26410455791311299</v>
       </c>
       <c r="C55">
-        <v>9.66666671422222</v>
+        <v>9.0000000676666705</v>
       </c>
       <c r="D55">
-        <v>0.0740740712825788</v>
+        <v>9.6666667142222202</v>
       </c>
       <c r="E55">
+        <v>7.4074071282578799E-2</v>
+      </c>
+      <c r="F55">
         <v>12.6666664657778</v>
       </c>
-      <c r="F55">
-        <v>0.310344800358304</v>
-      </c>
       <c r="G55">
-        <v>17.8333338770834</v>
+        <v>0.31034480035830397</v>
       </c>
       <c r="H55">
-        <v>0.407894802098455</v>
+        <v>17.833333877083401</v>
       </c>
       <c r="I55">
-        <v>0.264104557913113</v>
+        <v>0.40789480209845502</v>
       </c>
       <c r="J55" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>115</v>
       </c>
       <c r="B56">
-        <v>4.33333337844445</v>
+        <v>0.26368942898686298</v>
       </c>
       <c r="C56">
-        <v>5.66666671422222</v>
-      </c>
-      <c r="E56">
-        <v>7.66666654111111</v>
-      </c>
-      <c r="G56">
-        <v>8.66666695666668</v>
-      </c>
-      <c r="I56">
-        <v>0.263689428986863</v>
+        <v>4.3333333784444497</v>
+      </c>
+      <c r="D56">
+        <v>5.6666667142222202</v>
+      </c>
+      <c r="F56">
+        <v>7.6666665411111099</v>
+      </c>
+      <c r="H56">
+        <v>8.6666669566666794</v>
       </c>
       <c r="J56" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>117</v>
       </c>
       <c r="B57">
+        <v>0.26352814905675498</v>
+      </c>
+      <c r="C57">
         <v>2.33333334461111</v>
       </c>
-      <c r="C57">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E57">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G57">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I57">
-        <v>0.263528149056755</v>
+      <c r="D57">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F57">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H57">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>119</v>
       </c>
       <c r="B58">
-        <v>5.66666672305556</v>
+        <v>0.26215687377560598</v>
       </c>
       <c r="C58">
-        <v>6.66666671422222</v>
-      </c>
-      <c r="E58">
-        <v>8.33333319522223</v>
-      </c>
-      <c r="G58">
+        <v>5.6666667230555596</v>
+      </c>
+      <c r="D58">
+        <v>6.6666667142222202</v>
+      </c>
+      <c r="F58">
+        <v>8.3333331952222292</v>
+      </c>
+      <c r="H58">
         <v>11.3333336958333</v>
-      </c>
-      <c r="I58">
-        <v>0.262156873775606</v>
       </c>
       <c r="J58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>121</v>
       </c>
       <c r="B59">
-        <v>4.66666668922222</v>
+        <v>0.25992064914576801</v>
       </c>
       <c r="C59">
-        <v>5.00000003566667</v>
-      </c>
-      <c r="E59">
-        <v>6.66666654111111</v>
-      </c>
-      <c r="G59">
-        <v>9.16666699291668</v>
-      </c>
-      <c r="I59">
-        <v>0.259920649145768</v>
+        <v>4.6666666892222199</v>
+      </c>
+      <c r="D59">
+        <v>5.0000000356666696</v>
+      </c>
+      <c r="F59">
+        <v>6.6666665411111099</v>
+      </c>
+      <c r="H59">
+        <v>9.1666669929166797</v>
       </c>
       <c r="J59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>123</v>
       </c>
       <c r="B60">
-        <v>3.00000003383333</v>
+        <v>0.25661376274210401</v>
       </c>
       <c r="C60">
-        <v>4.66666667855556</v>
-      </c>
-      <c r="E60">
-        <v>5.66666657877778</v>
-      </c>
-      <c r="G60">
-        <v>5.66666688416667</v>
-      </c>
-      <c r="I60">
-        <v>0.256613762742104</v>
+        <v>3.0000000338333299</v>
+      </c>
+      <c r="D60">
+        <v>4.6666666785555604</v>
+      </c>
+      <c r="F60">
+        <v>5.6666665787777797</v>
+      </c>
+      <c r="H60">
+        <v>5.6666668841666699</v>
       </c>
       <c r="J60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>125</v>
       </c>
       <c r="B61">
+        <v>0.25636612008197401</v>
+      </c>
+      <c r="C61">
         <v>14.3333334461111</v>
       </c>
-      <c r="C61">
-        <v>18.1666667677222</v>
-      </c>
       <c r="D61">
-        <v>0.267441857542996</v>
+        <v>18.166666767722202</v>
       </c>
       <c r="E61">
-        <v>23.9999996233333</v>
+        <v>0.26744185754299599</v>
       </c>
       <c r="F61">
+        <v>23.999999623333299</v>
+      </c>
+      <c r="G61">
         <v>0.321100889348372</v>
       </c>
-      <c r="G61">
-        <v>28.3333342758334</v>
-      </c>
       <c r="H61">
+        <v>28.333334275833401</v>
+      </c>
+      <c r="I61">
         <v>0.180555613354554</v>
-      </c>
-      <c r="I61">
-        <v>0.256366120081974</v>
       </c>
       <c r="J61" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>127</v>
       </c>
       <c r="B62">
+        <v>0.25000002001388999</v>
+      </c>
+      <c r="C62">
         <v>1.33333334461111</v>
       </c>
-      <c r="C62">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E62">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G62">
-        <v>2.33333340583334</v>
-      </c>
-      <c r="I62">
-        <v>0.25000002001389</v>
+      <c r="D62">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F62">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H62">
+        <v>2.3333334058333399</v>
       </c>
       <c r="J62" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>129</v>
       </c>
       <c r="B63">
+        <v>0.24603176936205701</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="C63">
-        <v>2.33333335711111</v>
-      </c>
-      <c r="E63">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G63">
-        <v>3.66666681166667</v>
-      </c>
-      <c r="I63">
-        <v>0.246031769362057</v>
+      <c r="D63">
+        <v>2.3333333571111101</v>
+      </c>
+      <c r="F63">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H63">
+        <v>3.6666668116666701</v>
       </c>
       <c r="J63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>131</v>
       </c>
       <c r="B64">
+        <v>0.243452393465868</v>
+      </c>
+      <c r="C64">
         <v>3.33333334461111</v>
       </c>
-      <c r="C64">
-        <v>4.66666667855556</v>
-      </c>
-      <c r="E64">
-        <v>5.33333323288889</v>
-      </c>
-      <c r="G64">
-        <v>6.33333355083334</v>
-      </c>
-      <c r="I64">
-        <v>0.243452393465868</v>
+      <c r="D64">
+        <v>4.6666666785555604</v>
+      </c>
+      <c r="F64">
+        <v>5.3333332328888901</v>
+      </c>
+      <c r="H64">
+        <v>6.3333335508333404</v>
       </c>
       <c r="J64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>133</v>
       </c>
       <c r="B65">
-        <v>7.00000006766667</v>
+        <v>0.24325397360272499</v>
       </c>
       <c r="C65">
-        <v>8.00000003566667</v>
+        <v>7.0000000676666696</v>
       </c>
       <c r="D65">
-        <v>0.142857136904762</v>
+        <v>8.0000000356666696</v>
       </c>
       <c r="E65">
+        <v>0.14285713690476201</v>
+      </c>
+      <c r="F65">
         <v>11.6666664657778</v>
       </c>
-      <c r="F65">
-        <v>0.458333301720487</v>
-      </c>
       <c r="G65">
+        <v>0.45833330172048697</v>
+      </c>
+      <c r="H65">
         <v>13.1666670654167</v>
       </c>
-      <c r="H65">
-        <v>0.128571482182927</v>
-      </c>
       <c r="I65">
-        <v>0.243253973602725</v>
+        <v>0.12857148218292699</v>
       </c>
       <c r="J65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>135</v>
       </c>
       <c r="B66">
-        <v>6.00000003383333</v>
+        <v>0.24296297910537001</v>
       </c>
       <c r="C66">
-        <v>8.33333339277778</v>
+        <v>6.0000000338333299</v>
       </c>
       <c r="D66">
-        <v>0.388888890964506</v>
+        <v>8.3333333927777797</v>
       </c>
       <c r="E66">
-        <v>8.33333319522223</v>
+        <v>0.38888889096450602</v>
       </c>
       <c r="F66">
-        <v>-2.37066661142665e-8</v>
+        <v>8.3333331952222292</v>
       </c>
       <c r="G66">
+        <v>-2.3706666114266499E-8</v>
+      </c>
+      <c r="H66">
         <v>11.1666670654167</v>
       </c>
-      <c r="H66">
-        <v>0.340000070058269</v>
-      </c>
       <c r="I66">
-        <v>0.24296297910537</v>
+        <v>0.34000007005826899</v>
       </c>
       <c r="J66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>137</v>
       </c>
       <c r="B67">
+        <v>0.24250031311959799</v>
+      </c>
+      <c r="C67">
         <v>11.5000001015</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>11.8333334106111</v>
       </c>
-      <c r="D67">
-        <v>0.0289855048842681</v>
-      </c>
       <c r="E67">
-        <v>18.4999996798333</v>
+        <v>2.8985504884268098E-2</v>
       </c>
       <c r="F67">
-        <v>0.563380244424123</v>
+        <v>18.499999679833302</v>
       </c>
       <c r="G67">
-        <v>21.0000006525</v>
+        <v>0.56338024442412304</v>
       </c>
       <c r="H67">
+        <v>21.000000652499999</v>
+      </c>
+      <c r="I67">
         <v>0.135135190050404</v>
-      </c>
-      <c r="I67">
-        <v>0.242500313119598</v>
       </c>
       <c r="J67" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>139</v>
       </c>
       <c r="B68">
-        <v>3.66666668922222</v>
+        <v>0.24242424719030101</v>
       </c>
       <c r="C68">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E68">
-        <v>6.33333323288889</v>
-      </c>
-      <c r="G68">
-        <v>6.33333355083334</v>
-      </c>
-      <c r="I68">
-        <v>0.242424247190301</v>
+        <v>3.6666666892222199</v>
+      </c>
+      <c r="D68">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F68">
+        <v>6.3333332328888901</v>
+      </c>
+      <c r="H68">
+        <v>6.3333335508333404</v>
       </c>
       <c r="J68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>141</v>
       </c>
       <c r="B69">
+        <v>0.24138105518259401</v>
+      </c>
+      <c r="C69">
         <v>15.1666667907222</v>
       </c>
-      <c r="C69">
-        <v>19.000000107</v>
-      </c>
       <c r="D69">
-        <v>0.252747249555368</v>
+        <v>19.000000107000002</v>
       </c>
       <c r="E69">
-        <v>22.9999996233333</v>
+        <v>0.25274724955536798</v>
       </c>
       <c r="F69">
-        <v>0.210526289147738</v>
+        <v>22.999999623333299</v>
       </c>
       <c r="G69">
-        <v>29.0000009425</v>
+        <v>0.21052628914773799</v>
       </c>
       <c r="H69">
-        <v>0.260869626844678</v>
+        <v>29.000000942500002</v>
       </c>
       <c r="I69">
-        <v>0.241381055182594</v>
+        <v>0.26086962684467802</v>
       </c>
       <c r="J69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>143</v>
       </c>
       <c r="B70">
+        <v>0.23933669757317599</v>
+      </c>
+      <c r="C70">
         <v>12.5000001015</v>
       </c>
-      <c r="C70">
-        <v>15.6666667498889</v>
-      </c>
       <c r="D70">
-        <v>0.253333329814044</v>
+        <v>15.666666749888901</v>
       </c>
       <c r="E70">
+        <v>0.25333332981404399</v>
+      </c>
+      <c r="F70">
         <v>17.1666663716111</v>
       </c>
-      <c r="F70">
-        <v>0.0957446561970731</v>
-      </c>
       <c r="G70">
+        <v>9.5744656197073105E-2</v>
+      </c>
+      <c r="H70">
         <v>23.50000076125</v>
       </c>
-      <c r="H70">
-        <v>0.36893210670841</v>
-      </c>
       <c r="I70">
-        <v>0.239336697573176</v>
+        <v>0.36893210670840998</v>
       </c>
       <c r="J70" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>145</v>
       </c>
       <c r="B71">
-        <v>5.33333337844445</v>
+        <v>0.235493417760861</v>
       </c>
       <c r="C71">
-        <v>7.00000003566667</v>
-      </c>
-      <c r="E71">
-        <v>8.83333317638889</v>
-      </c>
-      <c r="G71">
-        <v>10.00000029</v>
-      </c>
-      <c r="I71">
-        <v>0.235493417760861</v>
+        <v>5.3333333784444497</v>
+      </c>
+      <c r="D71">
+        <v>7.0000000356666696</v>
+      </c>
+      <c r="F71">
+        <v>8.8333331763888907</v>
+      </c>
+      <c r="H71">
+        <v>10.000000289999999</v>
       </c>
       <c r="J71" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>147</v>
       </c>
       <c r="B72">
-        <v>5.66666672305556</v>
+        <v>0.234558829081569</v>
       </c>
       <c r="C72">
-        <v>5.33333335711111</v>
-      </c>
-      <c r="E72">
-        <v>8.33333319522223</v>
-      </c>
-      <c r="G72">
-        <v>10.00000029</v>
-      </c>
-      <c r="I72">
-        <v>0.234558829081569</v>
+        <v>5.6666667230555596</v>
+      </c>
+      <c r="D72">
+        <v>5.3333333571111101</v>
+      </c>
+      <c r="F72">
+        <v>8.3333331952222292</v>
+      </c>
+      <c r="H72">
+        <v>10.000000289999999</v>
       </c>
       <c r="J72" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>149</v>
       </c>
       <c r="B73">
-        <v>1.66666668922222</v>
+        <v>0.22820513454314301</v>
       </c>
       <c r="C73">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E73">
-        <v>2.16666663527778</v>
-      </c>
-      <c r="G73">
-        <v>3.0000000725</v>
-      </c>
-      <c r="I73">
-        <v>0.228205134543143</v>
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D73">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F73">
+        <v>2.1666666352777799</v>
+      </c>
+      <c r="H73">
+        <v>3.0000000724999998</v>
       </c>
       <c r="J73" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>151</v>
       </c>
       <c r="B74">
-        <v>4.66666668922222</v>
+        <v>0.226890776118541</v>
       </c>
       <c r="C74">
-        <v>5.66666671422222</v>
-      </c>
-      <c r="E74">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G74">
-        <v>7.66666688416667</v>
-      </c>
-      <c r="I74">
-        <v>0.226890776118541</v>
+        <v>4.6666666892222199</v>
+      </c>
+      <c r="D74">
+        <v>5.6666667142222202</v>
+      </c>
+      <c r="F74">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H74">
+        <v>7.6666668841666699</v>
       </c>
       <c r="J74" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>153</v>
       </c>
       <c r="B75">
-        <v>6.83333337844444</v>
+        <v>0.22402527408823</v>
       </c>
       <c r="C75">
-        <v>8.00000003566667</v>
+        <v>6.8333333784444399</v>
       </c>
       <c r="D75">
-        <v>0.170731704807852</v>
+        <v>8.0000000356666696</v>
       </c>
       <c r="E75">
+        <v>0.17073170480785199</v>
+      </c>
+      <c r="F75">
         <v>10.3333331575556</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.291666638935765</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>12.50000039875</v>
       </c>
-      <c r="H75">
-        <v>0.209677478521074</v>
-      </c>
       <c r="I75">
-        <v>0.22402527408823</v>
+        <v>0.20967747852107399</v>
       </c>
       <c r="J75" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>155</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.222222235048149</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="E76">
-        <v>1.66666665411111</v>
-      </c>
-      <c r="G76">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I76">
-        <v>0.222222235048149</v>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1.6666666541111099</v>
+      </c>
+      <c r="H76">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J76" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>157</v>
       </c>
       <c r="B77">
-        <v>2.66666668922222</v>
+        <v>0.22222222865046401</v>
       </c>
       <c r="C77">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E77">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G77">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I77">
-        <v>0.222222228650464</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D77">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F77">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H77">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J77" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>159</v>
       </c>
       <c r="B78">
-        <v>5.33333337844445</v>
+        <v>0.22023810987865</v>
       </c>
       <c r="C78">
-        <v>4.66666667855556</v>
-      </c>
-      <c r="E78">
-        <v>5.999999887</v>
-      </c>
-      <c r="G78">
-        <v>9.00000029000001</v>
-      </c>
-      <c r="I78">
-        <v>0.22023810987865</v>
+        <v>5.3333333784444497</v>
+      </c>
+      <c r="D78">
+        <v>4.6666666785555604</v>
+      </c>
+      <c r="F78">
+        <v>5.9999998870000004</v>
+      </c>
+      <c r="H78">
+        <v>9.0000002900000098</v>
       </c>
       <c r="J78" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>161</v>
       </c>
       <c r="B79">
-        <v>3.83333337844444</v>
+        <v>0.21946895323847501</v>
       </c>
       <c r="C79">
-        <v>4.33333335711111</v>
-      </c>
-      <c r="E79">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G79">
-        <v>6.16666684791667</v>
-      </c>
-      <c r="I79">
-        <v>0.219468953238475</v>
+        <v>3.8333333784444399</v>
+      </c>
+      <c r="D79">
+        <v>4.3333333571111101</v>
+      </c>
+      <c r="F79">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H79">
+        <v>6.1666668479166704</v>
       </c>
       <c r="J79" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>163</v>
       </c>
       <c r="B80">
-        <v>19.1666668245556</v>
+        <v>0.21695214312420799</v>
       </c>
       <c r="C80">
+        <v>19.166666824555598</v>
+      </c>
+      <c r="D80">
         <v>22.0000001426667</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0.147826084944575</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>24.9999995856667</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.136363610161158</v>
       </c>
-      <c r="G80">
-        <v>34.1666677904167</v>
-      </c>
       <c r="H80">
+        <v>34.166667790416703</v>
+      </c>
+      <c r="I80">
         <v>0.366666734266891</v>
-      </c>
-      <c r="I80">
-        <v>0.216952143124208</v>
       </c>
       <c r="J80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>165</v>
       </c>
       <c r="B81">
-        <v>2.66666668922222</v>
+        <v>0.21545584539708301</v>
       </c>
       <c r="C81">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E81">
-        <v>4.33333327055556</v>
-      </c>
-      <c r="G81">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I81">
-        <v>0.215455845397083</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D81">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F81">
+        <v>4.3333332705555598</v>
+      </c>
+      <c r="H81">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J81" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>167</v>
       </c>
       <c r="B82">
-        <v>8.50000006766667</v>
+        <v>0.213059399945635</v>
       </c>
       <c r="C82">
-        <v>9.5000000535</v>
+        <v>8.5000000676666705</v>
       </c>
       <c r="D82">
+        <v>9.5000000535000009</v>
+      </c>
+      <c r="E82">
         <v>0.1176470562203</v>
       </c>
-      <c r="E82">
-        <v>10.9999998116667</v>
-      </c>
       <c r="F82">
-        <v>0.157894710496769</v>
+        <v>10.999999811666701</v>
       </c>
       <c r="G82">
-        <v>15.0000005075</v>
+        <v>0.15789471049676901</v>
       </c>
       <c r="H82">
-        <v>0.363636433119837</v>
+        <v>15.000000507499999</v>
       </c>
       <c r="I82">
-        <v>0.213059399945635</v>
+        <v>0.36363643311983701</v>
       </c>
       <c r="J82" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>169</v>
       </c>
       <c r="B83">
+        <v>0.205808090019649</v>
+      </c>
+      <c r="C83">
         <v>1</v>
       </c>
-      <c r="C83">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E83">
-        <v>1.83333328938889</v>
-      </c>
-      <c r="G83">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I83">
-        <v>0.205808090019649</v>
+      <c r="D83">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F83">
+        <v>1.8333332893888901</v>
+      </c>
+      <c r="H83">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>171</v>
       </c>
       <c r="B84">
-        <v>2.66666668922222</v>
+        <v>0.20555556402421399</v>
       </c>
       <c r="C84">
-        <v>3.33333335711111</v>
-      </c>
-      <c r="E84">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G84">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I84">
-        <v>0.205555564024214</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D84">
+        <v>3.3333333571111101</v>
+      </c>
+      <c r="F84">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H84">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J84" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>173</v>
       </c>
       <c r="B85">
-        <v>6.16666672305556</v>
+        <v>0.20542209732702499</v>
       </c>
       <c r="C85">
-        <v>6.66666671422222</v>
+        <v>6.1666667230555596</v>
       </c>
       <c r="D85">
-        <v>0.0810810789072316</v>
+        <v>6.6666667142222202</v>
       </c>
       <c r="E85">
-        <v>8.99999984933334</v>
+        <v>8.1081078907231596E-2</v>
       </c>
       <c r="F85">
-        <v>0.349999967770001</v>
+        <v>8.9999998493333404</v>
       </c>
       <c r="G85">
+        <v>0.34999996777000097</v>
+      </c>
+      <c r="H85">
         <v>10.6666670291667</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.185185245303843</v>
-      </c>
-      <c r="I85">
-        <v>0.205422097327025</v>
       </c>
       <c r="J85" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>175</v>
       </c>
       <c r="B86">
-        <v>34.0000002706667</v>
+        <v>0.20371229723725801</v>
       </c>
       <c r="C86">
-        <v>35.1666668747222</v>
+        <v>34.000000270666703</v>
       </c>
       <c r="D86">
-        <v>0.0343137233755287</v>
+        <v>35.166666874722203</v>
       </c>
       <c r="E86">
-        <v>36.1666660702778</v>
+        <v>3.4313723375528703E-2</v>
       </c>
       <c r="F86">
-        <v>0.0284359959139137</v>
+        <v>36.166666070277799</v>
       </c>
       <c r="G86">
-        <v>56.0000018125001</v>
+        <v>2.84359959139137E-2</v>
       </c>
       <c r="H86">
-        <v>0.54838717242233</v>
+        <v>56.000001812500102</v>
       </c>
       <c r="I86">
-        <v>0.203712297237258</v>
+        <v>0.54838717242233004</v>
       </c>
       <c r="J86" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>177</v>
       </c>
       <c r="B87">
+        <v>0.202380974985262</v>
+      </c>
+      <c r="C87">
         <v>2.33333334461111</v>
       </c>
-      <c r="C87">
-        <v>2.33333335711111</v>
-      </c>
-      <c r="E87">
+      <c r="D87">
+        <v>2.3333333571111101</v>
+      </c>
+      <c r="F87">
         <v>1.99999996233333</v>
       </c>
-      <c r="G87">
-        <v>3.50000010875</v>
-      </c>
-      <c r="I87">
-        <v>0.202380974985262</v>
+      <c r="H87">
+        <v>3.5000001087500001</v>
       </c>
       <c r="J87" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>179</v>
       </c>
       <c r="B88">
-        <v>1.66666668922222</v>
+        <v>0.19999999935805601</v>
       </c>
       <c r="C88">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E88">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G88">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I88">
-        <v>0.199999999358056</v>
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D88">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F88">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H88">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J88" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>181</v>
       </c>
       <c r="B89">
-        <v>3.16666668922222</v>
+        <v>0.199730104160046</v>
       </c>
       <c r="C89">
-        <v>4.33333335711111</v>
-      </c>
-      <c r="E89">
-        <v>4.33333327055556</v>
-      </c>
-      <c r="G89">
-        <v>5.33333347833334</v>
-      </c>
-      <c r="I89">
-        <v>0.199730104160046</v>
+        <v>3.1666666892222199</v>
+      </c>
+      <c r="D89">
+        <v>4.3333333571111101</v>
+      </c>
+      <c r="F89">
+        <v>4.3333332705555598</v>
+      </c>
+      <c r="H89">
+        <v>5.3333334783333397</v>
       </c>
       <c r="J89" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>183</v>
       </c>
       <c r="B90">
+        <v>0.19841269961706401</v>
+      </c>
+      <c r="C90">
         <v>2.33333334461111</v>
       </c>
-      <c r="C90">
-        <v>4.00000003566667</v>
-      </c>
-      <c r="E90">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G90">
-        <v>3.33333340583334</v>
-      </c>
-      <c r="I90">
-        <v>0.198412699617064</v>
+      <c r="D90">
+        <v>4.0000000356666696</v>
+      </c>
+      <c r="F90">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H90">
+        <v>3.3333334058333399</v>
       </c>
       <c r="J90" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>185</v>
       </c>
       <c r="B91">
-        <v>4.50000003383333</v>
+        <v>0.19774031044627599</v>
       </c>
       <c r="C91">
-        <v>5.33333335711111</v>
-      </c>
-      <c r="E91">
-        <v>5.83333325172222</v>
-      </c>
-      <c r="G91">
-        <v>7.66666688416667</v>
-      </c>
-      <c r="I91">
-        <v>0.197740310446276</v>
+        <v>4.5000000338333299</v>
+      </c>
+      <c r="D91">
+        <v>5.3333333571111101</v>
+      </c>
+      <c r="F91">
+        <v>5.8333332517222196</v>
+      </c>
+      <c r="H91">
+        <v>7.6666668841666699</v>
       </c>
       <c r="J91" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>187</v>
       </c>
       <c r="B92">
-        <v>16.0000001353333</v>
+        <v>0.19584917061402801</v>
       </c>
       <c r="C92">
-        <v>18.1666667677222</v>
+        <v>16.000000135333298</v>
       </c>
       <c r="D92">
-        <v>0.135416663378906</v>
+        <v>18.166666767722202</v>
       </c>
       <c r="E92">
-        <v>20.6666663151111</v>
+        <v>0.13541666337890601</v>
       </c>
       <c r="F92">
-        <v>0.137614653219202</v>
+        <v>20.666666315111101</v>
       </c>
       <c r="G92">
-        <v>27.1666675729167</v>
+        <v>0.13761465321920199</v>
       </c>
       <c r="H92">
-        <v>0.314516195243975</v>
+        <v>27.166667572916701</v>
       </c>
       <c r="I92">
-        <v>0.195849170614028</v>
+        <v>0.31451619524397501</v>
       </c>
       <c r="J92" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>189</v>
       </c>
       <c r="B93">
-        <v>19.1666668245556</v>
+        <v>0.19567350021218899</v>
       </c>
       <c r="C93">
+        <v>19.166666824555598</v>
+      </c>
+      <c r="D93">
         <v>19.1666668033889</v>
       </c>
-      <c r="D93">
-        <v>-1.10434763032538e-9</v>
-      </c>
       <c r="E93">
-        <v>22.6666663151111</v>
+        <v>-1.10434763032538E-9</v>
       </c>
       <c r="F93">
-        <v>0.182608668874203</v>
+        <v>22.666666315111101</v>
       </c>
       <c r="G93">
-        <v>31.8333343845834</v>
+        <v>0.18260866887420299</v>
       </c>
       <c r="H93">
-        <v>0.404411832866712</v>
+        <v>31.833334384583399</v>
       </c>
       <c r="I93">
-        <v>0.195673500212189</v>
+        <v>0.40441183286671201</v>
       </c>
       <c r="J93" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>191</v>
       </c>
       <c r="B94">
+        <v>0.19564608961260699</v>
+      </c>
+      <c r="C94">
         <v>13.8333334461111</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>15.8333334462778</v>
       </c>
-      <c r="D94">
-        <v>0.14457831208637</v>
-      </c>
       <c r="E94">
-        <v>20.6666663151111</v>
+        <v>0.14457831208637001</v>
       </c>
       <c r="F94">
-        <v>0.305263126380352</v>
+        <v>20.666666315111101</v>
       </c>
       <c r="G94">
+        <v>0.30526312638035202</v>
+      </c>
+      <c r="H94">
         <v>23.50000076125</v>
       </c>
-      <c r="H94">
-        <v>0.1370968303711</v>
-      </c>
       <c r="I94">
-        <v>0.195646089612607</v>
+        <v>0.13709683037109999</v>
       </c>
       <c r="J94" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>193</v>
       </c>
       <c r="B95">
+        <v>0.194186892507859</v>
+      </c>
+      <c r="C95">
         <v>19.0000001691667</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>22.0000001426667</v>
       </c>
-      <c r="D95">
-        <v>0.157894734041551</v>
-      </c>
       <c r="E95">
-        <v>26.8333329127222</v>
+        <v>0.15789473404155099</v>
       </c>
       <c r="F95">
-        <v>0.219696942668733</v>
+        <v>26.833332912722199</v>
       </c>
       <c r="G95">
-        <v>32.3333343483334</v>
+        <v>0.21969694266873299</v>
       </c>
       <c r="H95">
+        <v>32.333334348333402</v>
+      </c>
+      <c r="I95">
         <v>0.204969000813293</v>
-      </c>
-      <c r="I95">
-        <v>0.194186892507859</v>
       </c>
       <c r="J95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>195</v>
       </c>
       <c r="B96">
-        <v>6.00000003383333</v>
+        <v>0.19286196430866501</v>
       </c>
       <c r="C96">
-        <v>7.33333339277778</v>
+        <v>6.0000000338333299</v>
       </c>
       <c r="D96">
+        <v>7.3333333927777797</v>
+      </c>
+      <c r="E96">
         <v>0.222222225237654</v>
       </c>
-      <c r="E96">
-        <v>8.33333319522223</v>
-      </c>
       <c r="F96">
-        <v>0.136363608318871</v>
+        <v>8.3333331952222292</v>
       </c>
       <c r="G96">
-        <v>10.1666669929167</v>
+        <v>0.13636360831887101</v>
       </c>
       <c r="H96">
-        <v>0.220000059369469</v>
+        <v>10.166666992916699</v>
       </c>
       <c r="I96">
-        <v>0.192861964308665</v>
+        <v>0.22000005936946901</v>
       </c>
       <c r="J96" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>197</v>
       </c>
       <c r="B97">
+        <v>0.191737898687275</v>
+      </c>
+      <c r="C97">
         <v>3.33333334461111</v>
       </c>
-      <c r="C97">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E97">
-        <v>4.33333327055556</v>
-      </c>
-      <c r="G97">
-        <v>5.33333347833334</v>
-      </c>
-      <c r="I97">
-        <v>0.191737898687275</v>
+      <c r="D97">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F97">
+        <v>4.3333332705555598</v>
+      </c>
+      <c r="H97">
+        <v>5.3333334783333397</v>
       </c>
       <c r="J97" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>199</v>
       </c>
       <c r="B98">
-        <v>2.66666668922222</v>
+        <v>0.18981483010950401</v>
       </c>
       <c r="C98">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E98">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G98">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I98">
-        <v>0.189814830109504</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D98">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F98">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H98">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J98" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>201</v>
       </c>
       <c r="B99">
-        <v>2.66666668922222</v>
+        <v>0.18981481938459099</v>
       </c>
       <c r="C99">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E99">
-        <v>4.33333327055556</v>
-      </c>
-      <c r="G99">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I99">
-        <v>0.189814819384591</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D99">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F99">
+        <v>4.3333332705555598</v>
+      </c>
+      <c r="H99">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J99" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>203</v>
       </c>
       <c r="B100">
-        <v>24.8333335476111</v>
+        <v>0.18673601542134799</v>
       </c>
       <c r="C100">
-        <v>29.8333335176111</v>
+        <v>24.833333547611101</v>
       </c>
       <c r="D100">
+        <v>29.833333517611099</v>
+      </c>
+      <c r="E100">
         <v>0.201342278933832</v>
       </c>
-      <c r="E100">
-        <v>35.1666661079445</v>
-      </c>
       <c r="F100">
+        <v>35.166666107944501</v>
+      </c>
+      <c r="G100">
         <v>0.178770923711391</v>
       </c>
-      <c r="G100">
-        <v>41.50000134125</v>
-      </c>
       <c r="H100">
+        <v>41.500001341249998</v>
+      </c>
+      <c r="I100">
         <v>0.180094843618822</v>
-      </c>
-      <c r="I100">
-        <v>0.186736015421348</v>
       </c>
       <c r="J100" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>205</v>
       </c>
       <c r="B101">
-        <v>2.66666668922222</v>
+        <v>0.18560606952914199</v>
       </c>
       <c r="C101">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E101">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G101">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I101">
-        <v>0.185606069529142</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D101">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F101">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H101">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>207</v>
       </c>
       <c r="B102">
+        <v>0.182853389826483</v>
+      </c>
+      <c r="C102">
         <v>14.6666667907222</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>15.3333334284444</v>
       </c>
-      <c r="D102">
-        <v>0.045454543096591</v>
-      </c>
       <c r="E102">
-        <v>18.6666663527778</v>
+        <v>4.5454543096590999E-2</v>
       </c>
       <c r="F102">
-        <v>0.217391276325457</v>
+        <v>18.666666352777799</v>
       </c>
       <c r="G102">
+        <v>0.21739127632545699</v>
+      </c>
+      <c r="H102">
         <v>24.0000007975</v>
       </c>
-      <c r="H102">
-        <v>0.2857143500574</v>
-      </c>
       <c r="I102">
-        <v>0.182853389826483</v>
+        <v>0.28571435005739998</v>
       </c>
       <c r="J102" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>209</v>
       </c>
       <c r="B103">
-        <v>21.1666668583889</v>
+        <v>0.178769460926155</v>
       </c>
       <c r="C103">
+        <v>21.166666858388901</v>
+      </c>
+      <c r="D103">
         <v>25.0000001426667</v>
       </c>
-      <c r="D103">
-        <v>0.181102358246761</v>
-      </c>
       <c r="E103">
+        <v>0.18110235824676099</v>
+      </c>
+      <c r="F103">
         <v>29.6666661644445</v>
       </c>
-      <c r="F103">
-        <v>0.186666639805867</v>
-      </c>
       <c r="G103">
-        <v>34.6666678266667</v>
+        <v>0.18666663980586701</v>
       </c>
       <c r="H103">
-        <v>0.168539384725836</v>
+        <v>34.666667826666703</v>
       </c>
       <c r="I103">
-        <v>0.178769460926155</v>
+        <v>0.16853938472583599</v>
       </c>
       <c r="J103" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>211</v>
       </c>
       <c r="B104">
-        <v>8.33333341227778</v>
+        <v>0.17789216791198501</v>
       </c>
       <c r="C104">
-        <v>10.6666667498889</v>
+        <v>8.3333334122777796</v>
       </c>
       <c r="D104">
-        <v>0.2799999978608</v>
+        <v>10.666666749888901</v>
       </c>
       <c r="E104">
+        <v>0.27999999786079999</v>
+      </c>
+      <c r="F104">
         <v>11.3333331575556</v>
       </c>
-      <c r="F104">
-        <v>0.0624999752311201</v>
-      </c>
       <c r="G104">
-        <v>13.50000047125</v>
+        <v>6.2499975231120102E-2</v>
       </c>
       <c r="H104">
+        <v>13.500000471250001</v>
+      </c>
+      <c r="I104">
         <v>0.191176530644033</v>
-      </c>
-      <c r="I104">
-        <v>0.177892167911985</v>
       </c>
       <c r="J104" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>213</v>
       </c>
       <c r="B105">
-        <v>2.50000003383333</v>
+        <v>0.17777778613703801</v>
       </c>
       <c r="C105">
-        <v>2.50000001783333</v>
-      </c>
-      <c r="E105">
-        <v>3.33333327055556</v>
-      </c>
-      <c r="G105">
-        <v>4.000000145</v>
-      </c>
-      <c r="I105">
-        <v>0.177777786137038</v>
+        <v>2.5000000338333299</v>
+      </c>
+      <c r="D105">
+        <v>2.5000000178333299</v>
+      </c>
+      <c r="F105">
+        <v>3.3333332705555598</v>
+      </c>
+      <c r="H105">
+        <v>4.0000001449999996</v>
       </c>
       <c r="J105" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>215</v>
       </c>
       <c r="B106">
-        <v>19.1666668245556</v>
+        <v>0.17484473169418599</v>
       </c>
       <c r="C106">
-        <v>23.3333334641111</v>
+        <v>19.166666824555598</v>
       </c>
       <c r="D106">
-        <v>0.217391301142533</v>
+        <v>23.333333464111099</v>
       </c>
       <c r="E106">
-        <v>24.6666662774445</v>
+        <v>0.21739130114253299</v>
       </c>
       <c r="F106">
-        <v>0.0571428345368713</v>
+        <v>24.666666277444499</v>
       </c>
       <c r="G106">
-        <v>30.8333343120834</v>
+        <v>5.7142834536871301E-2</v>
       </c>
       <c r="H106">
-        <v>0.250000059403155</v>
+        <v>30.833334312083402</v>
       </c>
       <c r="I106">
-        <v>0.174844731694186</v>
+        <v>0.25000005940315501</v>
       </c>
       <c r="J106" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>217</v>
       </c>
       <c r="B107">
+        <v>0.17346897777039599</v>
+      </c>
+      <c r="C107">
         <v>34.6666669598889</v>
       </c>
-      <c r="C107">
-        <v>38.8333335889444</v>
-      </c>
       <c r="D107">
-        <v>0.120192305590745</v>
+        <v>38.833333588944399</v>
       </c>
       <c r="E107">
-        <v>44.6666659384445</v>
+        <v>0.12019230559074499</v>
       </c>
       <c r="F107">
+        <v>44.666665938444503</v>
+      </c>
+      <c r="G107">
         <v>0.150214565951163</v>
       </c>
-      <c r="G107">
-        <v>55.8333351820834</v>
-      </c>
       <c r="H107">
-        <v>0.250000061769281</v>
+        <v>55.833335182083403</v>
       </c>
       <c r="I107">
-        <v>0.173468977770396</v>
+        <v>0.25000006176928102</v>
       </c>
       <c r="J107" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>219</v>
       </c>
       <c r="B108">
+        <v>0.16904762357639799</v>
+      </c>
+      <c r="C108">
         <v>1.33333334461111</v>
       </c>
-      <c r="C108">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E108">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G108">
-        <v>2.0000000725</v>
-      </c>
-      <c r="I108">
-        <v>0.169047623576398</v>
+      <c r="D108">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F108">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H108">
+        <v>2.0000000724999998</v>
       </c>
       <c r="J108" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>221</v>
       </c>
       <c r="B109">
+        <v>0.16881710186958199</v>
+      </c>
+      <c r="C109">
         <v>12.5000001015</v>
       </c>
-      <c r="C109">
-        <v>13.5000000891667</v>
-      </c>
       <c r="D109">
-        <v>0.0799999983637334</v>
+        <v>13.500000089166701</v>
       </c>
       <c r="E109">
+        <v>7.9999998363733393E-2</v>
+      </c>
+      <c r="F109">
         <v>15.6666664281111</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>0.160493801824722</v>
       </c>
-      <c r="G109">
-        <v>19.8333339495834</v>
-      </c>
       <c r="H109">
-        <v>0.26595750542029</v>
+        <v>19.833333949583398</v>
       </c>
       <c r="I109">
-        <v>0.168817101869582</v>
+        <v>0.26595750542029001</v>
       </c>
       <c r="J109" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>223</v>
       </c>
       <c r="B110">
+        <v>0.16861959101948501</v>
+      </c>
+      <c r="C110">
         <v>20.5000001691667</v>
       </c>
-      <c r="C110">
-        <v>21.3333334641111</v>
-      </c>
       <c r="D110">
-        <v>0.0406504042959879</v>
+        <v>21.333333464111099</v>
       </c>
       <c r="E110">
+        <v>4.0650404295987902E-2</v>
+      </c>
+      <c r="F110">
         <v>24.9999995856667</v>
       </c>
-      <c r="F110">
-        <v>0.171874973394288</v>
-      </c>
       <c r="G110">
-        <v>32.3333343483334</v>
+        <v>0.17187497339428801</v>
       </c>
       <c r="H110">
-        <v>0.29333339536818</v>
+        <v>32.333334348333402</v>
       </c>
       <c r="I110">
-        <v>0.168619591019485</v>
+        <v>0.29333339536817998</v>
       </c>
       <c r="J110" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>225</v>
       </c>
       <c r="B111">
-        <v>5.33333337844445</v>
+        <v>0.168161890208232</v>
       </c>
       <c r="C111">
-        <v>6.33333335711111</v>
-      </c>
-      <c r="E111">
-        <v>7.33333319522222</v>
-      </c>
-      <c r="G111">
-        <v>8.50000025375001</v>
-      </c>
-      <c r="I111">
-        <v>0.168161890208232</v>
+        <v>5.3333333784444497</v>
+      </c>
+      <c r="D111">
+        <v>6.3333333571111101</v>
+      </c>
+      <c r="F111">
+        <v>7.3333331952222203</v>
+      </c>
+      <c r="H111">
+        <v>8.5000002537500094</v>
       </c>
       <c r="J111" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>227</v>
       </c>
       <c r="B112">
-        <v>4.00000003383333</v>
+        <v>0.167302114740359</v>
       </c>
       <c r="C112">
-        <v>4.50000001783333</v>
-      </c>
-      <c r="E112">
-        <v>5.66666657877778</v>
-      </c>
-      <c r="G112">
-        <v>6.33333355083334</v>
-      </c>
-      <c r="I112">
-        <v>0.167302114740359</v>
+        <v>4.0000000338333299</v>
+      </c>
+      <c r="D112">
+        <v>4.5000000178333304</v>
+      </c>
+      <c r="F112">
+        <v>5.6666665787777797</v>
+      </c>
+      <c r="H112">
+        <v>6.3333335508333404</v>
       </c>
       <c r="J112" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>229</v>
       </c>
       <c r="B113">
-        <v>0.333333344611111</v>
+        <v>0.16666668536111301</v>
       </c>
       <c r="C113">
+        <v>0.33333334461111103</v>
+      </c>
+      <c r="D113">
         <v>0.333333321444444</v>
       </c>
-      <c r="E113">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G113">
+      <c r="F113">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H113">
         <v>0.500000036250001</v>
-      </c>
-      <c r="I113">
-        <v>0.166666685361113</v>
       </c>
       <c r="J113" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>231</v>
       </c>
       <c r="B114">
-        <v>2.66666668922222</v>
+        <v>0.16666667600694501</v>
       </c>
       <c r="C114">
-        <v>4.00000003566667</v>
-      </c>
-      <c r="E114">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G114">
-        <v>4.000000145</v>
-      </c>
-      <c r="I114">
-        <v>0.166666676006945</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D114">
+        <v>4.0000000356666696</v>
+      </c>
+      <c r="F114">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H114">
+        <v>4.0000001449999996</v>
       </c>
       <c r="J114" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>233</v>
       </c>
       <c r="B115">
-        <v>0.666666655388889</v>
+        <v>0.16666667544444499</v>
       </c>
       <c r="C115">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E115">
-        <v>0.666666654111111</v>
-      </c>
-      <c r="G115">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D115">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F115">
+        <v>0.66666665411111103</v>
+      </c>
+      <c r="H115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0.166666675444445</v>
       </c>
       <c r="J115" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>235</v>
       </c>
       <c r="B116">
+        <v>0.166666669819445</v>
+      </c>
+      <c r="C116">
         <v>1.33333334461111</v>
       </c>
-      <c r="C116">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E116">
+      <c r="D116">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F116">
         <v>1.99999996233333</v>
       </c>
-      <c r="G116">
-        <v>2.0000000725</v>
-      </c>
-      <c r="I116">
-        <v>0.166666669819445</v>
+      <c r="H116">
+        <v>2.0000000724999998</v>
       </c>
       <c r="J116" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>237</v>
       </c>
       <c r="B117">
-        <v>0.666666655388889</v>
+        <v>0.166666656444446</v>
       </c>
       <c r="C117">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E117">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G117">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I117">
-        <v>0.166666656444446</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D117">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F117">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H117">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J117" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>239</v>
       </c>
       <c r="B118">
+        <v>0.163359803063061</v>
+      </c>
+      <c r="C118">
         <v>2.33333334461111</v>
       </c>
-      <c r="C118">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E118">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G118">
-        <v>3.66666681166667</v>
-      </c>
-      <c r="I118">
-        <v>0.163359803063061</v>
+      <c r="D118">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F118">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H118">
+        <v>3.6666668116666701</v>
       </c>
       <c r="J118" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>241</v>
       </c>
       <c r="B119">
+        <v>0.16297395717277299</v>
+      </c>
+      <c r="C119">
         <v>13.0000001015</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>13.8333334106111</v>
       </c>
-      <c r="D119">
-        <v>0.0641025617388232</v>
-      </c>
       <c r="E119">
-        <v>16.6666663904445</v>
+        <v>6.4102561738823199E-2</v>
       </c>
       <c r="F119">
-        <v>0.204819250410026</v>
+        <v>16.666666390444501</v>
       </c>
       <c r="G119">
-        <v>20.3333339858334</v>
+        <v>0.20481925041002599</v>
       </c>
       <c r="H119">
-        <v>0.220000059369469</v>
+        <v>20.333333985833399</v>
       </c>
       <c r="I119">
-        <v>0.162973957172773</v>
+        <v>0.22000005936946901</v>
       </c>
       <c r="J119" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>243</v>
       </c>
       <c r="B120">
-        <v>16.0000001353333</v>
+        <v>0.16073233492908201</v>
       </c>
       <c r="C120">
-        <v>16.000000107</v>
+        <v>16.000000135333298</v>
       </c>
       <c r="D120">
-        <v>-1.77083324282984e-9</v>
+        <v>16.000000107000002</v>
       </c>
       <c r="E120">
-        <v>18.3333330445556</v>
+        <v>-1.77083324282984E-9</v>
       </c>
       <c r="F120">
-        <v>0.145833307621962</v>
+        <v>18.333333044555602</v>
       </c>
       <c r="G120">
+        <v>0.14583330762196201</v>
+      </c>
+      <c r="H120">
         <v>24.50000076125</v>
       </c>
-      <c r="H120">
-        <v>0.336363698936118</v>
-      </c>
       <c r="I120">
-        <v>0.160732334929082</v>
+        <v>0.33636369893611801</v>
       </c>
       <c r="J120" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>245</v>
       </c>
       <c r="B121">
-        <v>34.0000002706667</v>
+        <v>0.15901478752143799</v>
       </c>
       <c r="C121">
-        <v>35.3333335711111</v>
+        <v>34.000000270666703</v>
       </c>
       <c r="D121">
-        <v>0.0392156849950019</v>
+        <v>35.333333571111098</v>
       </c>
       <c r="E121">
+        <v>3.9215684995001901E-2</v>
+      </c>
+      <c r="F121">
         <v>40.6666660137778</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>0.150943370003086</v>
       </c>
-      <c r="G121">
-        <v>52.3333350008334</v>
-      </c>
       <c r="H121">
-        <v>0.286885307566225</v>
+        <v>52.333335000833401</v>
       </c>
       <c r="I121">
-        <v>0.159014787521438</v>
+        <v>0.28688530756622499</v>
       </c>
       <c r="J121" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>247</v>
       </c>
       <c r="B122">
-        <v>3.66666668922222</v>
+        <v>0.157287170659731</v>
       </c>
       <c r="C122">
-        <v>4.00000003566667</v>
-      </c>
-      <c r="E122">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G122">
-        <v>5.66666688416667</v>
-      </c>
-      <c r="I122">
-        <v>0.157287170659731</v>
+        <v>3.6666666892222199</v>
+      </c>
+      <c r="D122">
+        <v>4.0000000356666696</v>
+      </c>
+      <c r="F122">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H122">
+        <v>5.6666668841666699</v>
       </c>
       <c r="J122" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>249</v>
       </c>
       <c r="B123">
-        <v>43.8333336829444</v>
+        <v>0.157179034372083</v>
       </c>
       <c r="C123">
-        <v>44.3333336067778</v>
+        <v>43.833333682944399</v>
       </c>
       <c r="D123">
-        <v>0.0114068422778411</v>
+        <v>44.333333606777799</v>
       </c>
       <c r="E123">
-        <v>43.4999993031667</v>
+        <v>1.1406842277841099E-2</v>
       </c>
       <c r="F123">
-        <v>-0.0187970142512291</v>
+        <v>43.499999303166703</v>
       </c>
       <c r="G123">
-        <v>64.3333354358334</v>
+        <v>-1.8797014251229101E-2</v>
       </c>
       <c r="H123">
-        <v>0.478927275089637</v>
+        <v>64.333335435833405</v>
       </c>
       <c r="I123">
-        <v>0.157179034372083</v>
+        <v>0.47892727508963701</v>
       </c>
       <c r="J123" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>251</v>
       </c>
       <c r="B124">
+        <v>0.15555556264370399</v>
+      </c>
+      <c r="C124">
         <v>3.33333334461111</v>
       </c>
-      <c r="C124">
-        <v>3.33333335711111</v>
-      </c>
-      <c r="E124">
-        <v>4.99999992466667</v>
-      </c>
-      <c r="G124">
+      <c r="D124">
+        <v>3.3333333571111101</v>
+      </c>
+      <c r="F124">
+        <v>4.9999999246666702</v>
+      </c>
+      <c r="H124">
         <v>4.83333351458334</v>
-      </c>
-      <c r="I124">
-        <v>0.155555562643704</v>
       </c>
       <c r="J124" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>253</v>
       </c>
       <c r="B125">
-        <v>6.66666672305556</v>
+        <v>0.155006937867538</v>
       </c>
       <c r="C125">
-        <v>6.16666669638889</v>
+        <v>6.6666667230555596</v>
       </c>
       <c r="D125">
-        <v>-0.0750000033656249</v>
+        <v>6.1666666963888899</v>
       </c>
       <c r="E125">
-        <v>8.66666654111111</v>
+        <v>-7.5000003365624901E-2</v>
       </c>
       <c r="F125">
-        <v>0.405405378271245</v>
+        <v>8.6666665411111108</v>
       </c>
       <c r="G125">
-        <v>9.83333365958334</v>
+        <v>0.40540537827124501</v>
       </c>
       <c r="H125">
-        <v>0.134615438696994</v>
+        <v>9.8333336595833405</v>
       </c>
       <c r="I125">
-        <v>0.155006937867538</v>
+        <v>0.13461543869699399</v>
       </c>
       <c r="J125" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>255</v>
       </c>
       <c r="B126">
+        <v>0.15476191170769599</v>
+      </c>
+      <c r="C126">
         <v>1.33333334461111</v>
       </c>
-      <c r="C126">
-        <v>2.33333335711111</v>
-      </c>
-      <c r="E126">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G126">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I126">
-        <v>0.154761911707696</v>
+      <c r="D126">
+        <v>2.3333333571111101</v>
+      </c>
+      <c r="F126">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H126">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J126" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>257</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0.15277778553240801</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
-      <c r="E127">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G127">
-        <v>1.50000003625</v>
-      </c>
-      <c r="I127">
-        <v>0.152777785532408</v>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H127">
+        <v>1.5000000362499999</v>
       </c>
       <c r="J127" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>259</v>
       </c>
       <c r="B128">
-        <v>33.3333336152778</v>
+        <v>0.152549374169093</v>
       </c>
       <c r="C128">
-        <v>35.5000002318333</v>
+        <v>33.333333615277802</v>
       </c>
       <c r="D128">
-        <v>0.0649999979468751</v>
+        <v>35.500000231833297</v>
       </c>
       <c r="E128">
-        <v>39.1666660326111</v>
+        <v>6.4999997946875096E-2</v>
       </c>
       <c r="F128">
+        <v>39.166666032611097</v>
+      </c>
+      <c r="G128">
         <v>0.103286359910776</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>50.5000016312501</v>
       </c>
-      <c r="H128">
-        <v>0.289361764649626</v>
-      </c>
       <c r="I128">
-        <v>0.152549374169093</v>
+        <v>0.28936176464962599</v>
       </c>
       <c r="J128" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>261</v>
       </c>
       <c r="B129">
-        <v>10.3333334122778</v>
+        <v>0.152045433034911</v>
       </c>
       <c r="C129">
-        <v>10.6666667498889</v>
+        <v>10.333333412277799</v>
       </c>
       <c r="D129">
-        <v>0.0322580646836629</v>
+        <v>10.666666749888901</v>
       </c>
       <c r="E129">
-        <v>12.999999774</v>
+        <v>3.22580646836629E-2</v>
       </c>
       <c r="F129">
-        <v>0.218749969303711</v>
+        <v>12.999999774000001</v>
       </c>
       <c r="G129">
-        <v>15.6666671741667</v>
+        <v>0.21874996930371099</v>
       </c>
       <c r="H129">
-        <v>0.205128265117359</v>
+        <v>15.666667174166699</v>
       </c>
       <c r="I129">
-        <v>0.152045433034911</v>
+        <v>0.20512826511735899</v>
       </c>
       <c r="J129" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>263</v>
       </c>
       <c r="B130">
+        <v>0.151316465248726</v>
+      </c>
+      <c r="C130">
         <v>16.1666667907222</v>
       </c>
-      <c r="C130">
-        <v>17.6666667855556</v>
-      </c>
       <c r="D130">
-        <v>0.0927835041230737</v>
+        <v>17.666666785555599</v>
       </c>
       <c r="E130">
-        <v>22.3333329692222</v>
+        <v>9.2783504123073707E-2</v>
       </c>
       <c r="F130">
-        <v>0.264150914278985</v>
+        <v>22.333332969222202</v>
       </c>
       <c r="G130">
+        <v>0.26415091427898502</v>
+      </c>
+      <c r="H130">
         <v>24.50000076125</v>
       </c>
-      <c r="H130">
-        <v>0.0970149773441207</v>
-      </c>
       <c r="I130">
-        <v>0.151316465248726</v>
+        <v>9.7014977344120706E-2</v>
       </c>
       <c r="J130" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>265</v>
       </c>
       <c r="B131">
+        <v>0.15093638299899501</v>
+      </c>
+      <c r="C131">
         <v>12.3333334461111</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>12.8333334106111</v>
       </c>
-      <c r="D131">
-        <v>0.0405405372914537</v>
-      </c>
       <c r="E131">
+        <v>4.0540537291453703E-2</v>
+      </c>
+      <c r="F131">
         <v>15.6666664281111</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>0.220779194839377</v>
       </c>
-      <c r="G131">
-        <v>18.6666672466667</v>
-      </c>
       <c r="H131">
+        <v>18.666667246666702</v>
+      </c>
+      <c r="I131">
         <v>0.191489416866155</v>
-      </c>
-      <c r="I131">
-        <v>0.150936382998995</v>
       </c>
       <c r="J131" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>267</v>
       </c>
       <c r="B132">
-        <v>2.66666668922222</v>
+        <v>0.150000007422362</v>
       </c>
       <c r="C132">
-        <v>3.33333335711111</v>
-      </c>
-      <c r="E132">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G132">
-        <v>4.000000145</v>
-      </c>
-      <c r="I132">
-        <v>0.150000007422362</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D132">
+        <v>3.3333333571111101</v>
+      </c>
+      <c r="F132">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H132">
+        <v>4.0000001449999996</v>
       </c>
       <c r="J132" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>269</v>
       </c>
       <c r="B133">
+        <v>0.14970308810094901</v>
+      </c>
+      <c r="C133">
         <v>29.3333335814444</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>30.3333335354444</v>
       </c>
-      <c r="D133">
-        <v>0.034090907234375</v>
-      </c>
       <c r="E133">
-        <v>32.4999994538333</v>
+        <v>3.4090907234375002E-2</v>
       </c>
       <c r="F133">
-        <v>0.0714285462841448</v>
+        <v>32.499999453833297</v>
       </c>
       <c r="G133">
-        <v>43.6666681166667</v>
+        <v>7.14285462841448E-2</v>
       </c>
       <c r="H133">
-        <v>0.343589810784329</v>
+        <v>43.666668116666699</v>
       </c>
       <c r="I133">
-        <v>0.149703088100949</v>
+        <v>0.34358981078432899</v>
       </c>
       <c r="J133" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>271</v>
       </c>
       <c r="B134">
-        <v>25.500000203</v>
+        <v>0.14860783163984401</v>
       </c>
       <c r="C134">
-        <v>30.0000001783333</v>
+        <v>25.500000202999999</v>
       </c>
       <c r="D134">
+        <v>30.000000178333298</v>
+      </c>
+      <c r="E134">
         <v>0.17647058586313</v>
       </c>
-      <c r="E134">
-        <v>30.3333328562222</v>
-      </c>
       <c r="F134">
-        <v>0.011111089196914</v>
+        <v>30.333332856222199</v>
       </c>
       <c r="G134">
-        <v>38.1666679354167</v>
+        <v>1.1111089196914E-2</v>
       </c>
       <c r="H134">
-        <v>0.25824181985949</v>
+        <v>38.166667935416697</v>
       </c>
       <c r="I134">
-        <v>0.148607831639844</v>
+        <v>0.25824181985949002</v>
       </c>
       <c r="J134" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>273</v>
       </c>
       <c r="B135">
-        <v>9.33333341227778</v>
+        <v>0.14584520914332399</v>
       </c>
       <c r="C135">
-        <v>10.1666667320556</v>
+        <v>9.3333334122777796</v>
       </c>
       <c r="D135">
-        <v>0.0892857120781251</v>
+        <v>10.166666732055599</v>
       </c>
       <c r="E135">
+        <v>8.9285712078125107E-2</v>
+      </c>
+      <c r="F135">
         <v>12.3333331198889</v>
       </c>
-      <c r="F135">
-        <v>0.213114725301443</v>
-      </c>
       <c r="G135">
+        <v>0.21311472530144299</v>
+      </c>
+      <c r="H135">
         <v>14.000000435</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>0.135135190050404</v>
-      </c>
-      <c r="I135">
-        <v>0.145845209143324</v>
       </c>
       <c r="J135" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>275</v>
       </c>
       <c r="B136">
-        <v>25.1666668922222</v>
+        <v>0.143048883377246</v>
       </c>
       <c r="C136">
+        <v>25.166666892222199</v>
+      </c>
+      <c r="D136">
         <v>25.8333334819444</v>
       </c>
-      <c r="D136">
-        <v>0.026490062930354</v>
-      </c>
       <c r="E136">
-        <v>28.3333328562222</v>
+        <v>2.6490062930354E-2</v>
       </c>
       <c r="F136">
-        <v>0.0967741687701704</v>
+        <v>28.333332856222199</v>
       </c>
       <c r="G136">
-        <v>37.0000012325</v>
+        <v>9.6774168770170393E-2</v>
       </c>
       <c r="H136">
+        <v>37.000001232499997</v>
+      </c>
+      <c r="I136">
         <v>0.305882418431213</v>
-      </c>
-      <c r="I136">
-        <v>0.143048883377246</v>
       </c>
       <c r="J136" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>277</v>
       </c>
       <c r="B137">
+        <v>0.14298382407176499</v>
+      </c>
+      <c r="C137">
         <v>21.5000001691667</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>23.1666668033889</v>
       </c>
-      <c r="D137">
-        <v>0.0775193777259781</v>
-      </c>
       <c r="E137">
-        <v>26.4999995668333</v>
+        <v>7.7519377725978098E-2</v>
       </c>
       <c r="F137">
-        <v>0.143884866637648</v>
+        <v>26.499999566833299</v>
       </c>
       <c r="G137">
-        <v>32.000001015</v>
+        <v>0.14388486663764799</v>
       </c>
       <c r="H137">
-        <v>0.207547227851669</v>
+        <v>32.000001015000002</v>
       </c>
       <c r="I137">
-        <v>0.142983824071765</v>
+        <v>0.20754722785166899</v>
       </c>
       <c r="J137" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>279</v>
       </c>
       <c r="B138">
+        <v>0.14282744942713299</v>
+      </c>
+      <c r="C138">
         <v>31.3333335814444</v>
       </c>
-      <c r="C138">
-        <v>37.0000002496667</v>
-      </c>
       <c r="D138">
-        <v>0.180851062447374</v>
+        <v>37.000000249666698</v>
       </c>
       <c r="E138">
-        <v>38.6666660514445</v>
+        <v>0.18085106244737401</v>
       </c>
       <c r="F138">
-        <v>0.0450450213657175</v>
+        <v>38.666666051444501</v>
       </c>
       <c r="G138">
-        <v>46.5000014862501</v>
+        <v>4.5045021365717502E-2</v>
       </c>
       <c r="H138">
-        <v>0.202586264468306</v>
+        <v>46.500001486250099</v>
       </c>
       <c r="I138">
-        <v>0.142827449427133</v>
+        <v>0.20258626446830599</v>
       </c>
       <c r="J138" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>281</v>
       </c>
       <c r="B139">
-        <v>16.5000001353333</v>
+        <v>0.14091989863232701</v>
       </c>
       <c r="C139">
-        <v>19.000000107</v>
+        <v>16.500000135333298</v>
       </c>
       <c r="D139">
+        <v>19.000000107000002</v>
+      </c>
+      <c r="E139">
         <v>0.15151514855525</v>
       </c>
-      <c r="E139">
-        <v>21.3333329692222</v>
-      </c>
       <c r="F139">
+        <v>21.333332969222202</v>
+      </c>
+      <c r="G139">
         <v>0.122806992056941</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>24.50000076125</v>
       </c>
-      <c r="H139">
-        <v>0.148437555284792</v>
-      </c>
       <c r="I139">
-        <v>0.140919898632327</v>
+        <v>0.14843755528479199</v>
       </c>
       <c r="J139" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>283</v>
       </c>
       <c r="B140">
-        <v>7.50000006766667</v>
+        <v>0.139394994324331</v>
       </c>
       <c r="C140">
-        <v>7.66666671422222</v>
+        <v>7.5000000676666696</v>
       </c>
       <c r="D140">
-        <v>0.022222219340247</v>
+        <v>7.6666667142222202</v>
       </c>
       <c r="E140">
-        <v>9.33333319522223</v>
+        <v>2.2222219340246999E-2</v>
       </c>
       <c r="F140">
+        <v>9.3333331952222292</v>
+      </c>
+      <c r="G140">
         <v>0.217391278781979</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>11.0000003625</v>
       </c>
-      <c r="H140">
-        <v>0.178571484850767</v>
-      </c>
       <c r="I140">
-        <v>0.139394994324331</v>
+        <v>0.17857148485076699</v>
       </c>
       <c r="J140" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>285</v>
       </c>
       <c r="B141">
-        <v>3.66666668922222</v>
+        <v>0.13468014522871899</v>
       </c>
       <c r="C141">
-        <v>3.00000003566667</v>
-      </c>
-      <c r="E141">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G141">
-        <v>5.000000145</v>
-      </c>
-      <c r="I141">
-        <v>0.134680145228719</v>
+        <v>3.6666666892222199</v>
+      </c>
+      <c r="D141">
+        <v>3.0000000356666701</v>
+      </c>
+      <c r="F141">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H141">
+        <v>5.0000001449999996</v>
       </c>
       <c r="J141" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>287</v>
       </c>
       <c r="B142">
-        <v>8.33333341227778</v>
+        <v>0.133379959643743</v>
       </c>
       <c r="C142">
-        <v>8.66666671422222</v>
+        <v>8.3333334122777796</v>
       </c>
       <c r="D142">
-        <v>0.0399999958544</v>
+        <v>8.6666667142222202</v>
       </c>
       <c r="E142">
-        <v>10.9999998116667</v>
+        <v>3.9999995854399999E-2</v>
       </c>
       <c r="F142">
+        <v>10.999999811666701</v>
+      </c>
+      <c r="G142">
         <v>0.269230740535504</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>12.0000003625</v>
       </c>
-      <c r="H142">
-        <v>0.0909091425413239</v>
-      </c>
       <c r="I142">
-        <v>0.133379959643743</v>
+        <v>9.0909142541323901E-2</v>
       </c>
       <c r="J142" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>289</v>
       </c>
       <c r="B143">
-        <v>22.6666668583889</v>
+        <v>0.13312758195213201</v>
       </c>
       <c r="C143">
-        <v>27.0000001783333</v>
+        <v>22.666666858388901</v>
       </c>
       <c r="D143">
+        <v>27.000000178333298</v>
+      </c>
+      <c r="E143">
         <v>0.191176468380515</v>
       </c>
-      <c r="E143">
-        <v>28.3333328562222</v>
-      </c>
       <c r="F143">
-        <v>0.0493826914474931</v>
+        <v>28.333332856222199</v>
       </c>
       <c r="G143">
-        <v>32.8333343845834</v>
+        <v>4.9382691447493098E-2</v>
       </c>
       <c r="H143">
+        <v>32.833334384583402</v>
+      </c>
+      <c r="I143">
         <v>0.158823586028387</v>
-      </c>
-      <c r="I143">
-        <v>0.133127581952132</v>
       </c>
       <c r="J143" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>291</v>
       </c>
       <c r="B144">
+        <v>0.13237874088166399</v>
+      </c>
+      <c r="C144">
         <v>15.1666667907222</v>
       </c>
-      <c r="C144">
-        <v>17.5000001248333</v>
-      </c>
       <c r="D144">
-        <v>0.153846152639053</v>
+        <v>17.500000124833299</v>
       </c>
       <c r="E144">
-        <v>20.1666663339445</v>
+        <v>0.15384615263905299</v>
       </c>
       <c r="F144">
+        <v>20.166666333944502</v>
+      </c>
+      <c r="G144">
         <v>0.152380925147937</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>22.000000725</v>
       </c>
-      <c r="H144">
-        <v>0.0909091448580032</v>
-      </c>
       <c r="I144">
-        <v>0.132378740881664</v>
+        <v>9.0909144858003194E-2</v>
       </c>
       <c r="J144" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>293</v>
       </c>
       <c r="B145">
-        <v>2.66666668922222</v>
+        <v>0.130621707833593</v>
       </c>
       <c r="C145">
-        <v>3.50000001783333</v>
-      </c>
-      <c r="E145">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G145">
-        <v>3.66666681166667</v>
-      </c>
-      <c r="I145">
-        <v>0.130621707833593</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D145">
+        <v>3.5000000178333299</v>
+      </c>
+      <c r="F145">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H145">
+        <v>3.6666668116666701</v>
       </c>
       <c r="J145" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>295</v>
       </c>
       <c r="B146">
-        <v>4.33333337844445</v>
+        <v>0.12929446227677199</v>
       </c>
       <c r="C146">
-        <v>6.00000003566667</v>
-      </c>
-      <c r="E146">
-        <v>5.66666657877778</v>
-      </c>
-      <c r="G146">
+        <v>4.3333333784444497</v>
+      </c>
+      <c r="D146">
+        <v>6.0000000356666696</v>
+      </c>
+      <c r="F146">
+        <v>5.6666665787777797</v>
+      </c>
+      <c r="H146">
         <v>6.00000021750001</v>
-      </c>
-      <c r="I146">
-        <v>0.129294462276772</v>
       </c>
       <c r="J146" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>297</v>
       </c>
       <c r="B147">
-        <v>4.00000003383333</v>
+        <v>0.126984139503969</v>
       </c>
       <c r="C147">
-        <v>4.00000003566667</v>
-      </c>
-      <c r="E147">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G147">
-        <v>5.66666688416667</v>
-      </c>
-      <c r="I147">
-        <v>0.126984139503969</v>
+        <v>4.0000000338333299</v>
+      </c>
+      <c r="D147">
+        <v>4.0000000356666696</v>
+      </c>
+      <c r="F147">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H147">
+        <v>5.6666668841666699</v>
       </c>
       <c r="J147" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>299</v>
       </c>
       <c r="B148">
+        <v>0.123585547602695</v>
+      </c>
+      <c r="C148">
         <v>33.1666669598889</v>
       </c>
-      <c r="C148">
-        <v>34.3333335354444</v>
-      </c>
       <c r="D148">
-        <v>0.0351758763389308</v>
+        <v>34.333333535444403</v>
       </c>
       <c r="E148">
-        <v>35.9999993973333</v>
+        <v>3.5175876338930802E-2</v>
       </c>
       <c r="F148">
-        <v>0.0485436655944958</v>
+        <v>35.999999397333298</v>
       </c>
       <c r="G148">
+        <v>4.85436655944958E-2</v>
+      </c>
+      <c r="H148">
         <v>46.3333348558334</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>0.287037100874659</v>
-      </c>
-      <c r="I148">
-        <v>0.123585547602695</v>
       </c>
       <c r="J148" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>301</v>
       </c>
       <c r="B149">
+        <v>0.122222232492964</v>
+      </c>
+      <c r="C149">
         <v>3.33333334461111</v>
       </c>
-      <c r="C149">
-        <v>3.33333335711111</v>
-      </c>
-      <c r="E149">
-        <v>3.99999992466667</v>
-      </c>
-      <c r="G149">
-        <v>4.66666681166667</v>
-      </c>
-      <c r="I149">
-        <v>0.122222232492964</v>
+      <c r="D149">
+        <v>3.3333333571111101</v>
+      </c>
+      <c r="F149">
+        <v>3.9999999246666702</v>
+      </c>
+      <c r="H149">
+        <v>4.6666668116666701</v>
       </c>
       <c r="J149" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>302</v>
       </c>
       <c r="B150">
-        <v>36.0000003045</v>
+        <v>0.120570604866318</v>
       </c>
       <c r="C150">
-        <v>37.8333335889444</v>
+        <v>36.000000304499999</v>
       </c>
       <c r="D150">
-        <v>0.0509259241371527</v>
+        <v>37.833333588944399</v>
       </c>
       <c r="E150">
-        <v>36.1666660702778</v>
+        <v>5.0925924137152703E-2</v>
       </c>
       <c r="F150">
-        <v>-0.044052885658315</v>
+        <v>36.166666070277799</v>
       </c>
       <c r="G150">
+        <v>-4.4052885658315E-2</v>
+      </c>
+      <c r="H150">
         <v>49.0000015950001</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>0.354838776120115</v>
-      </c>
-      <c r="I150">
-        <v>0.120570604866318</v>
       </c>
       <c r="J150" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>304</v>
       </c>
       <c r="B151">
-        <v>9.83333341227778</v>
+        <v>0.11773552260971901</v>
       </c>
       <c r="C151">
-        <v>8.66666671422222</v>
+        <v>9.8333334122777796</v>
       </c>
       <c r="D151">
-        <v>-0.118644070036197</v>
+        <v>8.6666667142222202</v>
       </c>
       <c r="E151">
+        <v>-0.11864407003619699</v>
+      </c>
+      <c r="F151">
         <v>11.4999998305</v>
       </c>
-      <c r="F151">
-        <v>0.32692305008432</v>
-      </c>
       <c r="G151">
+        <v>0.32692305008431999</v>
+      </c>
+      <c r="H151">
         <v>13.1666670654167</v>
       </c>
-      <c r="H151">
-        <v>0.144927587781035</v>
-      </c>
       <c r="I151">
-        <v>0.117735522609719</v>
+        <v>0.14492758778103501</v>
       </c>
       <c r="J151" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>306</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.11111113527777899</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
-      <c r="E152">
+      <c r="D152">
         <v>1</v>
       </c>
-      <c r="G152">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I152">
-        <v>0.111111135277779</v>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J152" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>308</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0.11111112714352001</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
-      <c r="E153">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G153">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I153">
-        <v>0.11111112714352</v>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H153">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J153" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>310</v>
       </c>
       <c r="B154">
+        <v>0.111111115296298</v>
+      </c>
+      <c r="C154">
         <v>0.5</v>
       </c>
-      <c r="C154">
-        <v>0.500000017833333</v>
-      </c>
-      <c r="E154">
+      <c r="D154">
+        <v>0.50000001783333303</v>
+      </c>
+      <c r="F154">
         <v>0.499999981166667</v>
       </c>
-      <c r="G154">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I154">
-        <v>0.111111115296298</v>
+      <c r="H154">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J154" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>312</v>
       </c>
       <c r="B155">
-        <v>6.66666672305556</v>
+        <v>0.110159295793738</v>
       </c>
       <c r="C155">
+        <v>6.6666667230555596</v>
+      </c>
+      <c r="D155">
         <v>6.5000000535</v>
       </c>
-      <c r="D155">
-        <v>-0.0250000002218749</v>
-      </c>
       <c r="E155">
-        <v>7.33333319522222</v>
+        <v>-2.5000000221874898E-2</v>
       </c>
       <c r="F155">
+        <v>7.3333331952222203</v>
+      </c>
+      <c r="G155">
         <v>0.12820509767127</v>
       </c>
-      <c r="G155">
-        <v>9.00000029000001</v>
-      </c>
       <c r="H155">
-        <v>0.22727278993182</v>
+        <v>9.0000002900000098</v>
       </c>
       <c r="I155">
-        <v>0.110159295793738</v>
+        <v>0.22727278993182001</v>
       </c>
       <c r="J155" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>314</v>
       </c>
       <c r="B156">
-        <v>5.33333337844445</v>
+        <v>0.109068640510517</v>
       </c>
       <c r="C156">
-        <v>5.33333335711111</v>
-      </c>
-      <c r="E156">
-        <v>5.66666657877778</v>
-      </c>
-      <c r="G156">
-        <v>7.16666692041667</v>
-      </c>
-      <c r="I156">
-        <v>0.109068640510517</v>
+        <v>5.3333333784444497</v>
+      </c>
+      <c r="D156">
+        <v>5.3333333571111101</v>
+      </c>
+      <c r="F156">
+        <v>5.6666665787777797</v>
+      </c>
+      <c r="H156">
+        <v>7.1666669204166702</v>
       </c>
       <c r="J156" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>316</v>
       </c>
       <c r="B157">
-        <v>18.0000001353333</v>
+        <v>0.108768665386466</v>
       </c>
       <c r="C157">
-        <v>19.000000107</v>
+        <v>18.000000135333298</v>
       </c>
       <c r="D157">
-        <v>0.0555555535637861</v>
+        <v>19.000000107000002</v>
       </c>
       <c r="E157">
-        <v>19.8333330257222</v>
+        <v>5.5555553563786102E-2</v>
       </c>
       <c r="F157">
-        <v>0.0438596270541707</v>
+        <v>19.833333025722201</v>
       </c>
       <c r="G157">
+        <v>4.3859627054170701E-2</v>
+      </c>
+      <c r="H157">
         <v>24.3333341308334</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>0.226890815541442</v>
-      </c>
-      <c r="I157">
-        <v>0.108768665386466</v>
       </c>
       <c r="J157" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>318</v>
       </c>
       <c r="B158">
-        <v>17.5000001353333</v>
+        <v>0.108735180884987</v>
       </c>
       <c r="C158">
-        <v>19.000000107</v>
+        <v>17.500000135333298</v>
       </c>
       <c r="D158">
-        <v>0.085714283432381</v>
+        <v>19.000000107000002</v>
       </c>
       <c r="E158">
-        <v>20.8333329880556</v>
+        <v>8.5714283432380994E-2</v>
       </c>
       <c r="F158">
-        <v>0.0964912037226841</v>
+        <v>20.833332988055599</v>
       </c>
       <c r="G158">
+        <v>9.6491203722684105E-2</v>
+      </c>
+      <c r="H158">
         <v>23.8333340945834</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>0.144000055499895</v>
-      </c>
-      <c r="I158">
-        <v>0.108735180884987</v>
       </c>
       <c r="J158" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>320</v>
       </c>
       <c r="B159">
-        <v>5.00000003383333</v>
+        <v>0.10816994815424</v>
       </c>
       <c r="C159">
-        <v>5.66666671422222</v>
-      </c>
-      <c r="E159">
-        <v>5.33333323288889</v>
-      </c>
-      <c r="G159">
-        <v>6.66666688416667</v>
-      </c>
-      <c r="I159">
-        <v>0.10816994815424</v>
+        <v>5.0000000338333299</v>
+      </c>
+      <c r="D159">
+        <v>5.6666667142222202</v>
+      </c>
+      <c r="F159">
+        <v>5.3333332328888901</v>
+      </c>
+      <c r="H159">
+        <v>6.6666668841666699</v>
       </c>
       <c r="J159" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>322</v>
       </c>
       <c r="B160">
-        <v>5.00000003383333</v>
+        <v>0.105555568411899</v>
       </c>
       <c r="C160">
-        <v>5.33333335711111</v>
-      </c>
-      <c r="E160">
-        <v>5.33333323288889</v>
-      </c>
-      <c r="G160">
-        <v>6.66666688416667</v>
-      </c>
-      <c r="I160">
-        <v>0.105555568411899</v>
+        <v>5.0000000338333299</v>
+      </c>
+      <c r="D160">
+        <v>5.3333333571111101</v>
+      </c>
+      <c r="F160">
+        <v>5.3333332328888901</v>
+      </c>
+      <c r="H160">
+        <v>6.6666668841666699</v>
       </c>
       <c r="J160" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>324</v>
       </c>
       <c r="B161">
+        <v>0.10322743671429301</v>
+      </c>
+      <c r="C161">
         <v>14.3333334461111</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>15.3333334284444</v>
       </c>
-      <c r="D161">
-        <v>0.0697674400789616</v>
-      </c>
       <c r="E161">
-        <v>16.1666664092778</v>
+        <v>6.9767440078961601E-2</v>
       </c>
       <c r="F161">
-        <v>0.0543478027607125</v>
+        <v>16.166666409277799</v>
       </c>
       <c r="G161">
-        <v>19.1666672829167</v>
+        <v>5.4347802760712501E-2</v>
       </c>
       <c r="H161">
-        <v>0.185567067303204</v>
+        <v>19.166667282916698</v>
       </c>
       <c r="I161">
-        <v>0.103227436714293</v>
+        <v>0.18556706730320399</v>
       </c>
       <c r="J161" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>326</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0.103174623675361</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
-      <c r="E162">
-        <v>1.16666663527778</v>
-      </c>
-      <c r="G162">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I162">
-        <v>0.103174623675361</v>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1.1666666352777799</v>
+      </c>
+      <c r="H162">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J162" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>328</v>
       </c>
       <c r="B163">
-        <v>8.66666672305556</v>
+        <v>9.9478431661651504E-2</v>
       </c>
       <c r="C163">
-        <v>7.66666671422222</v>
+        <v>8.6666667230555596</v>
       </c>
       <c r="D163">
+        <v>7.6666667142222202</v>
+      </c>
+      <c r="E163">
         <v>-0.115384615653106</v>
       </c>
-      <c r="E163">
-        <v>9.33333319522223</v>
-      </c>
       <c r="F163">
+        <v>9.3333331952222292</v>
+      </c>
+      <c r="G163">
         <v>0.217391278781979</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>11.1666670654167</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>0.196428631856082</v>
-      </c>
-      <c r="I163">
-        <v>0.0994784316616515</v>
       </c>
       <c r="J163" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>330</v>
       </c>
       <c r="B164">
-        <v>2.16666668922222</v>
+        <v>9.70696098982987E-2</v>
       </c>
       <c r="C164">
-        <v>2.33333335711111</v>
-      </c>
-      <c r="E164">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G164">
-        <v>2.83333344208334</v>
-      </c>
-      <c r="I164">
-        <v>0.0970696098982987</v>
+        <v>2.1666666892222199</v>
+      </c>
+      <c r="D164">
+        <v>2.3333333571111101</v>
+      </c>
+      <c r="F164">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H164">
+        <v>2.8333334420833398</v>
       </c>
       <c r="J164" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>332</v>
       </c>
       <c r="B165">
-        <v>24.3333335476111</v>
+        <v>9.5145540129659395E-2</v>
       </c>
       <c r="C165">
+        <v>24.333333547611101</v>
+      </c>
+      <c r="D165">
         <v>24.0000001426667</v>
       </c>
-      <c r="D165">
-        <v>-0.0136986329592794</v>
-      </c>
       <c r="E165">
-        <v>26.4999995668333</v>
+        <v>-1.3698632959279399E-2</v>
       </c>
       <c r="F165">
+        <v>26.499999566833299</v>
+      </c>
+      <c r="G165">
         <v>0.104166642054399</v>
       </c>
-      <c r="G165">
-        <v>31.6666676816667</v>
-      </c>
       <c r="H165">
-        <v>0.194968611293859</v>
+        <v>31.666667681666699</v>
       </c>
       <c r="I165">
-        <v>0.0951455401296594</v>
+        <v>0.19496861129385901</v>
       </c>
       <c r="J165" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>334</v>
       </c>
       <c r="B166">
-        <v>2.66666668922222</v>
+        <v>8.69709028261893E-2</v>
       </c>
       <c r="C166">
-        <v>1.50000001783333</v>
-      </c>
-      <c r="E166">
-        <v>2.33333330822222</v>
-      </c>
-      <c r="G166">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I166">
-        <v>0.0869709028261893</v>
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D166">
+        <v>1.5000000178333299</v>
+      </c>
+      <c r="F166">
+        <v>2.3333333082222198</v>
+      </c>
+      <c r="H166">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J166" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>336</v>
       </c>
       <c r="B167">
-        <v>4.00000003383333</v>
+        <v>8.4110342258033696E-2</v>
       </c>
       <c r="C167">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E167">
-        <v>4.33333327055556</v>
-      </c>
-      <c r="G167">
-        <v>5.000000145</v>
-      </c>
-      <c r="I167">
-        <v>0.0841103422580337</v>
+        <v>4.0000000338333299</v>
+      </c>
+      <c r="D167">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F167">
+        <v>4.3333332705555598</v>
+      </c>
+      <c r="H167">
+        <v>5.0000001449999996</v>
       </c>
       <c r="J167" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>338</v>
       </c>
       <c r="B168">
+        <v>8.33333449034728E-2</v>
+      </c>
+      <c r="C168">
         <v>1.33333334461111</v>
       </c>
-      <c r="C168">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E168">
-        <v>1.66666665411111</v>
-      </c>
-      <c r="G168">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I168">
-        <v>0.0833333449034728</v>
+      <c r="D168">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F168">
+        <v>1.6666666541111099</v>
+      </c>
+      <c r="H168">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J168" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>340</v>
       </c>
       <c r="B169">
-        <v>3.83333337844444</v>
+        <v>7.9307584234518599E-2</v>
       </c>
       <c r="C169">
-        <v>4.00000003566667</v>
-      </c>
-      <c r="E169">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G169">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I169">
-        <v>0.0793075842345186</v>
+        <v>3.8333333784444399</v>
+      </c>
+      <c r="D169">
+        <v>4.0000000356666696</v>
+      </c>
+      <c r="F169">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H169">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J169" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>342</v>
       </c>
       <c r="B170">
-        <v>4.50000003383333</v>
+        <v>7.7549541200519906E-2</v>
       </c>
       <c r="C170">
-        <v>5.66666671422222</v>
-      </c>
-      <c r="E170">
-        <v>6.999999887</v>
-      </c>
-      <c r="G170">
-        <v>5.16666684791667</v>
-      </c>
-      <c r="I170">
-        <v>0.0775495412005199</v>
+        <v>4.5000000338333299</v>
+      </c>
+      <c r="D170">
+        <v>5.6666667142222202</v>
+      </c>
+      <c r="F170">
+        <v>6.9999998870000004</v>
+      </c>
+      <c r="H170">
+        <v>5.1666668479166704</v>
       </c>
       <c r="J170" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>344</v>
       </c>
       <c r="B171">
-        <v>7.33333337844445</v>
+        <v>7.7525263733777702E-2</v>
       </c>
       <c r="C171">
-        <v>8.00000003566667</v>
+        <v>7.3333333784444497</v>
       </c>
       <c r="D171">
-        <v>0.0909090890619833</v>
+        <v>8.0000000356666696</v>
       </c>
       <c r="E171">
-        <v>8.33333319522223</v>
+        <v>9.0909089061983306E-2</v>
       </c>
       <c r="F171">
-        <v>0.0416666447586812</v>
+        <v>8.3333331952222292</v>
       </c>
       <c r="G171">
-        <v>9.16666699291668</v>
+        <v>4.1666644758681197E-2</v>
       </c>
       <c r="H171">
+        <v>9.1666669929166797</v>
+      </c>
+      <c r="I171">
         <v>0.100000057380669</v>
-      </c>
-      <c r="I171">
-        <v>0.0775252637337777</v>
       </c>
       <c r="J171" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>346</v>
       </c>
       <c r="B172">
-        <v>1.66666668922222</v>
+        <v>7.6785710516247704E-2</v>
       </c>
       <c r="C172">
-        <v>2.33333335711111</v>
-      </c>
-      <c r="E172">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G172">
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D172">
+        <v>2.3333333571111101</v>
+      </c>
+      <c r="F172">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H172">
         <v>1.83333336958333</v>
-      </c>
-      <c r="I172">
-        <v>0.0767857105162477</v>
       </c>
       <c r="J172" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>348</v>
       </c>
       <c r="B173">
-        <v>4.33333337844445</v>
+        <v>7.3504278981626703E-2</v>
       </c>
       <c r="C173">
-        <v>4.33333335711111</v>
-      </c>
-      <c r="E173">
-        <v>4.99999992466667</v>
-      </c>
-      <c r="G173">
-        <v>5.33333347833334</v>
-      </c>
-      <c r="I173">
-        <v>0.0735042789816267</v>
+        <v>4.3333333784444497</v>
+      </c>
+      <c r="D173">
+        <v>4.3333333571111101</v>
+      </c>
+      <c r="F173">
+        <v>4.9999999246666702</v>
+      </c>
+      <c r="H173">
+        <v>5.3333334783333397</v>
       </c>
       <c r="J173" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>350</v>
       </c>
       <c r="B174">
-        <v>19.1666668245556</v>
+        <v>7.2541095640483194E-2</v>
       </c>
       <c r="C174">
-        <v>17.3333334284444</v>
+        <v>19.166666824555598</v>
       </c>
       <c r="D174">
-        <v>-0.0956521764004537</v>
+        <v>17.333333428444401</v>
       </c>
       <c r="E174">
-        <v>20.6666663151111</v>
+        <v>-9.5652176400453703E-2</v>
       </c>
       <c r="F174">
+        <v>20.666666315111101</v>
+      </c>
+      <c r="G174">
         <v>0.192307665483235</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>23.1666674279167</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>0.120967797838668</v>
-      </c>
-      <c r="I174">
-        <v>0.0725410956404832</v>
       </c>
       <c r="J174" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>352</v>
       </c>
       <c r="B175">
-        <v>1.66666668922222</v>
+        <v>6.6666672507778593E-2</v>
       </c>
       <c r="C175">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E175">
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D175">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F175">
         <v>1.99999996233333</v>
       </c>
-      <c r="G175">
-        <v>2.0000000725</v>
-      </c>
-      <c r="I175">
-        <v>0.0666666725077786</v>
+      <c r="H175">
+        <v>2.0000000724999998</v>
       </c>
       <c r="J175" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>354</v>
       </c>
       <c r="B176">
+        <v>6.1111113014537803E-2</v>
+      </c>
+      <c r="C176">
         <v>2</v>
       </c>
-      <c r="C176">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E176">
-        <v>2.66666661644445</v>
-      </c>
-      <c r="G176">
-        <v>2.0000000725</v>
-      </c>
-      <c r="I176">
-        <v>0.0611111130145378</v>
+      <c r="D176">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F176">
+        <v>2.6666666164444499</v>
+      </c>
+      <c r="H176">
+        <v>2.0000000724999998</v>
       </c>
       <c r="J176" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>356</v>
       </c>
       <c r="B177">
-        <v>5.33333337844445</v>
+        <v>6.0941887507844503E-2</v>
       </c>
       <c r="C177">
-        <v>5.83333337494444</v>
-      </c>
-      <c r="E177">
-        <v>5.66666657877778</v>
-      </c>
-      <c r="G177">
-        <v>6.33333355083334</v>
-      </c>
-      <c r="I177">
-        <v>0.0609418875078445</v>
+        <v>5.3333333784444497</v>
+      </c>
+      <c r="D177">
+        <v>5.8333333749444396</v>
+      </c>
+      <c r="F177">
+        <v>5.6666665787777797</v>
+      </c>
+      <c r="H177">
+        <v>6.3333335508333404</v>
       </c>
       <c r="J177" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>358</v>
       </c>
       <c r="B178">
-        <v>5.66666672305556</v>
+        <v>5.8241319015376901E-2</v>
       </c>
       <c r="C178">
-        <v>6.00000003566667</v>
-      </c>
-      <c r="E178">
-        <v>4.83333325172222</v>
-      </c>
-      <c r="G178">
-        <v>6.33333355083334</v>
-      </c>
-      <c r="I178">
-        <v>0.0582413190153769</v>
+        <v>5.6666667230555596</v>
+      </c>
+      <c r="D178">
+        <v>6.0000000356666696</v>
+      </c>
+      <c r="F178">
+        <v>4.8333332517222196</v>
+      </c>
+      <c r="H178">
+        <v>6.3333335508333404</v>
       </c>
       <c r="J178" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>360</v>
       </c>
       <c r="B179">
+        <v>5.3439158160747097E-2</v>
+      </c>
+      <c r="C179">
         <v>2.33333334461111</v>
       </c>
-      <c r="C179">
-        <v>2.50000001783333</v>
-      </c>
-      <c r="E179">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G179">
-        <v>2.66666673916667</v>
-      </c>
-      <c r="I179">
-        <v>0.0534391581607471</v>
+      <c r="D179">
+        <v>2.5000000178333299</v>
+      </c>
+      <c r="F179">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H179">
+        <v>2.6666667391666699</v>
       </c>
       <c r="J179" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>362</v>
       </c>
       <c r="B180">
-        <v>1.16666668922222</v>
+        <v>4.7619059228175803E-2</v>
       </c>
       <c r="C180">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E180">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G180">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I180">
-        <v>0.0476190592281758</v>
+        <v>1.1666666892222199</v>
+      </c>
+      <c r="D180">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F180">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H180">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J180" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>364</v>
       </c>
       <c r="B181">
-        <v>6.33333337844444</v>
+        <v>3.7480072197885898E-2</v>
       </c>
       <c r="C181">
-        <v>7.33333339277778</v>
+        <v>6.3333333784444399</v>
       </c>
       <c r="D181">
-        <v>0.15789473798061</v>
+        <v>7.3333333927777797</v>
       </c>
       <c r="E181">
-        <v>6.999999887</v>
+        <v>0.15789473798060999</v>
       </c>
       <c r="F181">
-        <v>-0.0454545686012393</v>
+        <v>6.9999998870000004</v>
       </c>
       <c r="G181">
+        <v>-4.5454568601239302E-2</v>
+      </c>
+      <c r="H181">
         <v>7.00000021750001</v>
       </c>
-      <c r="H181">
-        <v>4.72142873378036e-8</v>
-      </c>
       <c r="I181">
-        <v>0.0374800721978859</v>
+        <v>4.7214287337803599E-8</v>
       </c>
       <c r="J181" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>366</v>
       </c>
       <c r="B182">
-        <v>4.00000003383333</v>
+        <v>3.7301594857494097E-2</v>
       </c>
       <c r="C182">
-        <v>5.00000003566667</v>
-      </c>
-      <c r="E182">
-        <v>4.66666657877778</v>
-      </c>
-      <c r="G182">
-        <v>4.33333347833334</v>
-      </c>
-      <c r="I182">
-        <v>0.0373015948574941</v>
+        <v>4.0000000338333299</v>
+      </c>
+      <c r="D182">
+        <v>5.0000000356666696</v>
+      </c>
+      <c r="F182">
+        <v>4.6666665787777797</v>
+      </c>
+      <c r="H182">
+        <v>4.3333334783333397</v>
       </c>
       <c r="J182" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>368</v>
       </c>
       <c r="B183">
+        <v>2.7777791695602901E-2</v>
+      </c>
+      <c r="C183">
         <v>1.33333334461111</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>1</v>
       </c>
-      <c r="E183">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G183">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I183">
-        <v>0.0277777916956029</v>
+      <c r="F183">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H183">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J183" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>370</v>
       </c>
       <c r="B184">
-        <v>9.83333341227778</v>
+        <v>2.0572966176401801E-2</v>
       </c>
       <c r="C184">
-        <v>9.00000007133333</v>
+        <v>9.8333334122777796</v>
       </c>
       <c r="D184">
-        <v>-0.0847457628055158</v>
+        <v>9.0000000713333304</v>
       </c>
       <c r="E184">
-        <v>10.9999998116667</v>
+        <v>-8.4745762805515795E-2</v>
       </c>
       <c r="F184">
-        <v>0.222222191609054</v>
+        <v>10.999999811666701</v>
       </c>
       <c r="G184">
-        <v>10.1666669929167</v>
+        <v>0.22222219160905399</v>
       </c>
       <c r="H184">
-        <v>-0.0757575302743328</v>
+        <v>10.166666992916699</v>
       </c>
       <c r="I184">
-        <v>0.0205729661764018</v>
+        <v>-7.5757530274332796E-2</v>
       </c>
       <c r="J184" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>372</v>
       </c>
       <c r="B185">
-        <v>25.3333335476111</v>
+        <v>8.9299950289930107E-3</v>
       </c>
       <c r="C185">
-        <v>25.6666668212222</v>
+        <v>25.333333547611101</v>
       </c>
       <c r="D185">
-        <v>0.0131578922680921</v>
+        <v>25.666666821222201</v>
       </c>
       <c r="E185">
-        <v>25.1666662586111</v>
+        <v>1.31578922680921E-2</v>
       </c>
       <c r="F185">
-        <v>-0.0194805412831278</v>
+        <v>25.166666258611102</v>
       </c>
       <c r="G185">
-        <v>26.00000087</v>
+        <v>-1.94805412831278E-2</v>
       </c>
       <c r="H185">
-        <v>0.0331126341020147</v>
+        <v>26.000000870000001</v>
       </c>
       <c r="I185">
-        <v>0.00892999502899301</v>
+        <v>3.3112634102014697E-2</v>
       </c>
       <c r="J185" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>374</v>
       </c>
       <c r="B186">
-        <v>0.666666655388889</v>
+        <v>5.63888949902042E-9</v>
       </c>
       <c r="C186">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E186">
-        <v>0.666666654111111</v>
-      </c>
-      <c r="G186">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I186">
-        <v>5.63888949902042e-9</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D186">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F186">
+        <v>0.66666665411111103</v>
+      </c>
+      <c r="H186">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J186" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>376</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
-      <c r="E187">
+      <c r="D187">
         <v>1</v>
       </c>
-      <c r="G187">
+      <c r="F187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>0</v>
+      <c r="H187">
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>378</v>
       </c>
       <c r="B188">
-        <v>8.83333341227778</v>
+        <v>-3.6687534652239599E-3</v>
       </c>
       <c r="C188">
-        <v>8.00000003566667</v>
+        <v>8.8333334122777796</v>
       </c>
       <c r="D188">
-        <v>-0.0943396266977572</v>
+        <v>8.0000000356666696</v>
       </c>
       <c r="E188">
-        <v>7.999999887</v>
+        <v>-9.4339626697757195E-2</v>
       </c>
       <c r="F188">
-        <v>-1.85833329006954e-8</v>
+        <v>7.9999998870000004</v>
       </c>
       <c r="G188">
-        <v>8.66666695666668</v>
+        <v>-1.8583332900695401E-8</v>
       </c>
       <c r="H188">
-        <v>0.0833333848854182</v>
+        <v>8.6666669566666794</v>
       </c>
       <c r="I188">
-        <v>-0.00366875346522396</v>
+        <v>8.3333384885418194E-2</v>
       </c>
       <c r="J188" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>380</v>
       </c>
       <c r="B189">
-        <v>6.66666672305556</v>
+        <v>-1.32044997308514E-2</v>
       </c>
       <c r="C189">
-        <v>7.66666671422222</v>
+        <v>6.6666667230555596</v>
       </c>
       <c r="D189">
+        <v>7.6666667142222202</v>
+      </c>
+      <c r="E189">
         <v>0.14999999740625</v>
       </c>
-      <c r="E189">
-        <v>5.999999887</v>
-      </c>
       <c r="F189">
-        <v>-0.217391323941399</v>
+        <v>5.9999998870000004</v>
       </c>
       <c r="G189">
-        <v>6.16666684791667</v>
+        <v>-0.21739132394139901</v>
       </c>
       <c r="H189">
-        <v>0.0277778273425941</v>
+        <v>6.1666668479166704</v>
       </c>
       <c r="I189">
-        <v>-0.0132044997308514</v>
+        <v>2.77778273425941E-2</v>
       </c>
       <c r="J189" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>382</v>
       </c>
       <c r="B190">
-        <v>2.66666668922222</v>
+        <v>-2.7777765526619699E-2</v>
       </c>
       <c r="C190">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E190">
+        <v>2.6666666892222199</v>
+      </c>
+      <c r="D190">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F190">
         <v>1.99999996233333</v>
       </c>
-      <c r="G190">
-        <v>2.33333340583334</v>
-      </c>
-      <c r="I190">
-        <v>-0.0277777655266197</v>
+      <c r="H190">
+        <v>2.3333334058333399</v>
       </c>
       <c r="J190" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>384</v>
       </c>
       <c r="B191">
-        <v>0.666666655388889</v>
+        <v>-5.5555555467591798E-2</v>
       </c>
       <c r="C191">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D191">
         <v>1</v>
       </c>
-      <c r="E191">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G191">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I191">
-        <v>-0.0555555554675918</v>
+      <c r="F191">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H191">
+        <v>0.33333333333333298</v>
       </c>
       <c r="J191" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>386</v>
       </c>
       <c r="B192">
+        <v>-5.5555560509259097E-2</v>
+      </c>
+      <c r="C192">
         <v>1</v>
       </c>
-      <c r="C192">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E192">
+      <c r="D192">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F192">
         <v>1</v>
       </c>
-      <c r="G192">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I192">
-        <v>-0.0555555605092591</v>
+      <c r="H192">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J192" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>388</v>
       </c>
       <c r="B193">
-        <v>1.66666668922222</v>
+        <v>-6.6666653339443202E-2</v>
       </c>
       <c r="C193">
-        <v>1.33333335711111</v>
-      </c>
-      <c r="E193">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G193">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I193">
-        <v>-0.0666666533394432</v>
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D193">
+        <v>1.3333333571111099</v>
+      </c>
+      <c r="F193">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H193">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J193" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>390</v>
       </c>
       <c r="B194">
-        <v>4.00000003383333</v>
+        <v>-7.1732022953907806E-2</v>
       </c>
       <c r="C194">
-        <v>2.83333333927778</v>
-      </c>
-      <c r="E194">
-        <v>3.33333327055556</v>
-      </c>
-      <c r="G194">
-        <v>3.0000000725</v>
-      </c>
-      <c r="I194">
-        <v>-0.0717320229539078</v>
+        <v>4.0000000338333299</v>
+      </c>
+      <c r="D194">
+        <v>2.8333333392777802</v>
+      </c>
+      <c r="F194">
+        <v>3.3333332705555598</v>
+      </c>
+      <c r="H194">
+        <v>3.0000000724999998</v>
       </c>
       <c r="J194" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>392</v>
       </c>
       <c r="B195">
+        <v>-8.3333335447916698E-2</v>
+      </c>
+      <c r="C195">
         <v>1.33333334461111</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>1</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>1</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>-0.0833333354479167</v>
       </c>
       <c r="J195" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>394</v>
       </c>
       <c r="B196">
+        <v>-8.4126976651216198E-2</v>
+      </c>
+      <c r="C196">
         <v>2.33333334461111</v>
       </c>
-      <c r="C196">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E196">
+      <c r="D196">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F196">
         <v>1.99999996233333</v>
       </c>
-      <c r="G196">
-        <v>1.66666673916667</v>
-      </c>
-      <c r="I196">
-        <v>-0.0841269766512162</v>
+      <c r="H196">
+        <v>1.6666667391666701</v>
       </c>
       <c r="J196" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>396</v>
       </c>
       <c r="B197">
+        <v>-0.103174609438272</v>
+      </c>
+      <c r="C197">
         <v>2.33333334461111</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>2</v>
       </c>
-      <c r="E197">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G197">
+      <c r="F197">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H197">
         <v>1</v>
-      </c>
-      <c r="I197">
-        <v>-0.103174609438272</v>
       </c>
       <c r="J197" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>398</v>
       </c>
       <c r="B198">
-        <v>4.33333337844445</v>
+        <v>-0.11025640476257199</v>
       </c>
       <c r="C198">
-        <v>3.33333335711111</v>
-      </c>
-      <c r="E198">
-        <v>2.99999996233333</v>
-      </c>
-      <c r="G198">
-        <v>3.0000000725</v>
-      </c>
-      <c r="I198">
-        <v>-0.110256404762572</v>
+        <v>4.3333333784444497</v>
+      </c>
+      <c r="D198">
+        <v>3.3333333571111101</v>
+      </c>
+      <c r="F198">
+        <v>2.9999999623333302</v>
+      </c>
+      <c r="H198">
+        <v>3.0000000724999998</v>
       </c>
       <c r="J198" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>400</v>
       </c>
       <c r="B199">
+        <v>-0.122222202762406</v>
+      </c>
+      <c r="C199">
         <v>2</v>
       </c>
-      <c r="C199">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E199">
-        <v>1.33333330822222</v>
-      </c>
-      <c r="G199">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I199">
-        <v>-0.122222202762406</v>
+      <c r="D199">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F199">
+        <v>1.3333333082222201</v>
+      </c>
+      <c r="H199">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J199" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>402</v>
       </c>
       <c r="B200">
-        <v>2.16666668922222</v>
+        <v>-0.14786323665010701</v>
       </c>
       <c r="C200">
+        <v>2.1666666892222199</v>
+      </c>
+      <c r="D200">
         <v>2</v>
       </c>
-      <c r="E200">
-        <v>1.66666665411111</v>
-      </c>
-      <c r="G200">
-        <v>1.33333340583334</v>
-      </c>
-      <c r="I200">
-        <v>-0.147863236650107</v>
+      <c r="F200">
+        <v>1.6666666541111099</v>
+      </c>
+      <c r="H200">
+        <v>1.3333334058333399</v>
       </c>
       <c r="J200" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>404</v>
       </c>
       <c r="B201">
-        <v>0.666666655388889</v>
+        <v>-0.16666665790277599</v>
       </c>
       <c r="C201">
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D201">
         <v>0.333333321444444</v>
       </c>
-      <c r="E201">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G201">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I201">
-        <v>-0.166666657902776</v>
+      <c r="F201">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H201">
+        <v>0.33333333333333298</v>
       </c>
       <c r="J201" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>406</v>
       </c>
       <c r="B202">
-        <v>0.666666655388889</v>
+        <v>-0.16666666433333299</v>
       </c>
       <c r="C202">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E202">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G202">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I202">
-        <v>-0.166666664333333</v>
+        <v>0.66666665538888903</v>
+      </c>
+      <c r="D202">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F202">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H202">
+        <v>0.33333333333333298</v>
       </c>
       <c r="J202" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>408</v>
       </c>
       <c r="B203">
+        <v>-0.214393946598334</v>
+      </c>
+      <c r="C203">
         <v>3.33333334461111</v>
       </c>
-      <c r="C203">
-        <v>2.66666667855556</v>
-      </c>
-      <c r="E203">
-        <v>3.66666661644445</v>
-      </c>
-      <c r="G203">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I203">
-        <v>-0.214393946598334</v>
+      <c r="D203">
+        <v>2.6666666785555599</v>
+      </c>
+      <c r="F203">
+        <v>3.6666666164444499</v>
+      </c>
+      <c r="H203">
+        <v>0.66666666666666696</v>
       </c>
       <c r="J203" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>410</v>
       </c>
       <c r="B204">
+        <v>-0.27777778306481399</v>
+      </c>
+      <c r="C204">
         <v>1</v>
       </c>
-      <c r="C204">
-        <v>0.666666678555556</v>
-      </c>
-      <c r="E204">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G204">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I204">
-        <v>-0.277777783064814</v>
+      <c r="D204">
+        <v>0.66666667855555595</v>
+      </c>
+      <c r="F204">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H204">
+        <v>0.33333333333333298</v>
       </c>
       <c r="J204" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>412</v>
       </c>
       <c r="B205">
-        <v>1.66666668922222</v>
+        <v>-0.60000000009777799</v>
       </c>
       <c r="C205">
-        <v>1.66666667855556</v>
-      </c>
-      <c r="E205">
-        <v>0.333333345888889</v>
-      </c>
-      <c r="G205">
+        <v>1.6666666892222199</v>
+      </c>
+      <c r="D205">
+        <v>1.6666666785555599</v>
+      </c>
+      <c r="F205">
+        <v>0.33333334588888902</v>
+      </c>
+      <c r="H205">
         <v>0</v>
-      </c>
-      <c r="I205">
-        <v>-0.600000000097778</v>
       </c>
       <c r="J205" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="206" spans="2:9">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B206">
+        <v>0.25347443820205801</v>
+      </c>
+      <c r="C206">
         <v>3.08333336152777</v>
       </c>
-      <c r="C206">
-        <v>3.66666667855556</v>
-      </c>
-      <c r="E206">
-        <v>4.49999992466667</v>
-      </c>
-      <c r="G206">
-        <v>5.33333347833334</v>
-      </c>
-      <c r="I206">
-        <v>0.253474438202058</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7">
-      <c r="B207">
+      <c r="D206">
+        <v>3.6666666785555599</v>
+      </c>
+      <c r="F206">
+        <v>4.4999999246666702</v>
+      </c>
+      <c r="H206">
+        <v>5.3333334783333397</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C207">
         <v>6.74673208026607</v>
       </c>
-      <c r="C207">
-        <v>7.45424841240305</v>
-      </c>
-      <c r="E207">
-        <v>8.64705868394117</v>
-      </c>
-      <c r="G207">
+      <c r="D207">
+        <v>7.4542484124030501</v>
+      </c>
+      <c r="F207">
+        <v>8.6470586839411698</v>
+      </c>
+      <c r="H207">
         <v>10.6715689732476</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>